--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_0_branch_ward34_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_0_branch_ward34_impedance.xlsx
@@ -1050,40 +1050,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.563194052506556E-14</v>
+        <v>-3.647452789181831E-14</v>
       </c>
       <c r="O2">
-        <v>1.563189667967258E-14</v>
+        <v>7.81592640807129E-15</v>
       </c>
       <c r="P2">
-        <v>-1.042133822868902E-14</v>
+        <v>-3.126392559370315E-14</v>
       </c>
       <c r="Q2">
-        <v>-2.60532342084423E-14</v>
+        <v>2.605323420844165E-14</v>
       </c>
       <c r="R2">
-        <v>-5.210174758053882E-15</v>
+        <v>-5.210174741222614E-15</v>
       </c>
       <c r="S2">
-        <v>5.211119632898032E-15</v>
+        <v>3.126435384375754E-14</v>
       </c>
       <c r="T2">
-        <v>-3.647452789181843E-14</v>
+        <v>-2.084258736675391E-14</v>
       </c>
       <c r="U2">
-        <v>5.763350571398476E-09</v>
+        <v>5.763384440602944E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089307E-09</v>
+        <v>-5.763392260736169E-09</v>
       </c>
       <c r="W2">
-        <v>3.64745278918183E-14</v>
+        <v>1.563194052506543E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763355781559422E-09</v>
+        <v>-5.763376624146789E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763387050575203E-09</v>
+        <v>5.763402682515755E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1104,40 +1104,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057474</v>
+        <v>0.5500000117057483</v>
       </c>
       <c r="AH2">
-        <v>0.550000012103018</v>
+        <v>0.5500000121030197</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593792</v>
       </c>
       <c r="AK2">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493891</v>
       </c>
       <c r="AL2">
-        <v>6.94449666104254E-13</v>
+        <v>7.020749901105101E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995569</v>
+        <v>-179.9999999995568</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>6.887451165512839E-13</v>
+        <v>7.066505586617264E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1181,40 +1181,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736675361E-14</v>
+        <v>-5.210646841688497E-15</v>
       </c>
       <c r="O3">
-        <v>1.563214546371081E-14</v>
+        <v>-1.302641214729176E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886348086E-14</v>
+        <v>2.051771254580501E-19</v>
       </c>
       <c r="Q3">
-        <v>1.252730165043641E-28</v>
+        <v>-1.042129368337667E-14</v>
       </c>
       <c r="R3">
-        <v>-5.210804201512236E-15</v>
+        <v>2.605307682879611E-14</v>
       </c>
       <c r="S3">
-        <v>-1.563209812746983E-14</v>
+        <v>-1.575923785655391E-19</v>
       </c>
       <c r="T3">
-        <v>1.04212936833765E-14</v>
+        <v>1.042129368337668E-14</v>
       </c>
       <c r="U3">
-        <v>-1.92113422573967E-09</v>
+        <v>-1.921142041709931E-09</v>
       </c>
       <c r="V3">
-        <v>1.921108174325013E-09</v>
+        <v>1.921144648852928E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337675E-14</v>
+        <v>-5.210646841688497E-15</v>
       </c>
       <c r="X3">
-        <v>1.921139436440498E-09</v>
+        <v>1.921149857734182E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921118595564711E-09</v>
+        <v>-1.921123806211564E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1235,40 +1235,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG3">
         <v>0.5500000116439223</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593792</v>
       </c>
       <c r="AK3">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493891</v>
       </c>
       <c r="AL3">
-        <v>6.660169023184687E-13</v>
+        <v>6.985605907837916E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938803</v>
       </c>
       <c r="AN3">
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>6.887451165512839E-13</v>
+        <v>7.066505586617264E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1312,40 +1312,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.563194052506493E-14</v>
+        <v>1.563194052506492E-14</v>
       </c>
       <c r="O4">
-        <v>1.563214546482255E-14</v>
+        <v>-1.302641214801572E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886348086E-14</v>
+        <v>1.042149886354881E-14</v>
       </c>
       <c r="Q4">
-        <v>-1.252730165043641E-28</v>
+        <v>-2.084258736675328E-14</v>
       </c>
       <c r="R4">
-        <v>5.210489477222209E-15</v>
+        <v>2.605307682879611E-14</v>
       </c>
       <c r="S4">
-        <v>-1.563209812661494E-14</v>
+        <v>-1.042145128039764E-14</v>
       </c>
       <c r="T4">
-        <v>-1.56319405250653E-14</v>
+        <v>1.56319405250653E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921144647033347E-09</v>
+        <v>-1.921131620416253E-09</v>
       </c>
       <c r="V4">
-        <v>1.921108174325013E-09</v>
+        <v>1.921134227559239E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368337675E-14</v>
+        <v>-1.563194052506536E-14</v>
       </c>
       <c r="X4">
-        <v>1.921139436440499E-09</v>
+        <v>1.921149857734182E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211563E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1366,40 +1366,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439223</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593792</v>
       </c>
       <c r="AK4">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493891</v>
       </c>
       <c r="AL4">
-        <v>6.729871228056328E-13</v>
+        <v>6.957302314575253E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>6.887451165512839E-13</v>
+        <v>7.066505586617264E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1443,40 +1443,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.210646841688615E-15</v>
+        <v>-2.084258736675342E-14</v>
       </c>
       <c r="O5">
-        <v>1.042129367732985E-14</v>
+        <v>7.81597025883119E-15</v>
       </c>
       <c r="P5">
-        <v>-5.210646844155951E-15</v>
+        <v>-1.563194052968543E-14</v>
       </c>
       <c r="Q5">
-        <v>-1.042129368337644E-14</v>
+        <v>5.210646841688243E-15</v>
       </c>
       <c r="R5">
-        <v>-5.210646840332533E-15</v>
+        <v>7.815970257719427E-15</v>
       </c>
       <c r="S5">
-        <v>-5.21064684526895E-15</v>
+        <v>1.563194053191141E-14</v>
       </c>
       <c r="T5">
-        <v>2.084258736675343E-14</v>
+        <v>-5.210646841688624E-15</v>
       </c>
       <c r="U5">
-        <v>1.042129367955333E-14</v>
+        <v>8.338212436531782E-25</v>
       </c>
       <c r="V5">
-        <v>5.56499296051812E-25</v>
+        <v>2.605323422244931E-14</v>
       </c>
       <c r="W5">
-        <v>-2.605323420844199E-14</v>
+        <v>1.04212936833768E-14</v>
       </c>
       <c r="X5">
-        <v>1.042129367788572E-14</v>
+        <v>1.042129367927541E-14</v>
       </c>
       <c r="Y5">
-        <v>-1.042129368775541E-14</v>
+        <v>-5.210646845825442E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1497,40 +1497,40 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG5">
         <v>0.5500000116439223</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ5">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439223</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AL5">
-        <v>6.660169023184687E-13</v>
+        <v>6.985605907837916E-13</v>
       </c>
       <c r="AM5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938803</v>
       </c>
       <c r="AN5">
         <v>179.9999999938735</v>
       </c>
       <c r="AO5">
-        <v>6.729871228056328E-13</v>
+        <v>6.957302314575253E-13</v>
       </c>
       <c r="AP5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938803</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
     </row>
   </sheetData>
@@ -1718,40 +1718,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.210646841703929E-15</v>
+        <v>-2.60532342085186E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307564051549513E-10</v>
+        <v>-7.307410635698036E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307828491597E-09</v>
+        <v>-2.039314556408058E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052511143E-14</v>
+        <v>2.084258736681483E-14</v>
       </c>
       <c r="R2">
-        <v>7.307617996355367E-10</v>
+        <v>7.307620460032144E-10</v>
       </c>
       <c r="S2">
-        <v>2.039299456555506E-09</v>
+        <v>2.039321246943068E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511128E-14</v>
+        <v>-2.605323420851911E-14</v>
       </c>
       <c r="U2">
-        <v>5.822474143464276E-09</v>
+        <v>5.822491659763896E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556048237506592E-09</v>
+        <v>-3.556064981956822E-09</v>
       </c>
       <c r="W2">
-        <v>1.04212936834074E-14</v>
+        <v>2.605323420851907E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822469343566672E-09</v>
+        <v>-5.822482654918493E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556051601792752E-09</v>
+        <v>3.556057432213956E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1772,40 +1772,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635722</v>
+        <v>0.6816683458635729</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780336</v>
+        <v>0.4761907155780343</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299574</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277812</v>
       </c>
       <c r="AL2">
-        <v>5.619264055562163E-13</v>
+        <v>5.630024027091247E-13</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584275</v>
+        <v>-164.9034422584274</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654784</v>
+        <v>158.1097491654787</v>
       </c>
       <c r="AO2">
-        <v>5.609448367570525E-13</v>
+        <v>5.719695876329663E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1849,40 +1849,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511137E-14</v>
+        <v>-5.161444298007427E-29</v>
       </c>
       <c r="O3">
-        <v>2.43611530557365E-10</v>
+        <v>2.435803546517203E-10</v>
       </c>
       <c r="P3">
-        <v>6.797597827477959E-10</v>
+        <v>6.797798911562474E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841703877E-15</v>
+        <v>-1.042129368340749E-14</v>
       </c>
       <c r="R3">
-        <v>-2.43593665971423E-10</v>
+        <v>-2.435718428374724E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797597827156841E-10</v>
+        <v>-6.797815731032529E-10</v>
       </c>
       <c r="T3">
-        <v>5.210646841703627E-15</v>
+        <v>5.210646841703773E-15</v>
       </c>
       <c r="U3">
-        <v>-1.940822143213295E-09</v>
+        <v>-1.940830553108888E-09</v>
       </c>
       <c r="V3">
-        <v>1.185349985864476E-09</v>
+        <v>1.185351630173114E-09</v>
       </c>
       <c r="W3">
-        <v>-1.04212936834075E-14</v>
+        <v>-5.210646841703876E-15</v>
       </c>
       <c r="X3">
-        <v>1.940830306777651E-09</v>
+        <v>1.940836193704566E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185349985828039E-09</v>
+        <v>-1.185355816249233E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1906,37 +1906,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187521</v>
+        <v>0.681668345818752</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299574</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277812</v>
       </c>
       <c r="AL3">
-        <v>5.435082623316418E-13</v>
+        <v>5.675475299933785E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO3">
-        <v>5.609448367570525E-13</v>
+        <v>5.719695876329663E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1980,40 +1980,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.0842587366815E-14</v>
+        <v>5.21064684170367E-15</v>
       </c>
       <c r="O4">
-        <v>2.436024241533438E-10</v>
+        <v>2.435928250139789E-10</v>
       </c>
       <c r="P4">
-        <v>6.797681549729043E-10</v>
+        <v>6.797715189311389E-10</v>
       </c>
       <c r="Q4">
-        <v>1.042129368340745E-14</v>
+        <v>-1.563194052511116E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435845595674015E-10</v>
+        <v>-2.435718428374724E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797681549407923E-10</v>
+        <v>-6.797732008781447E-10</v>
       </c>
       <c r="T4">
-        <v>-1.042129368340775E-14</v>
+        <v>1.04212936834076E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940837977533791E-09</v>
+        <v>-1.940827189150651E-09</v>
       </c>
       <c r="V4">
-        <v>1.185346621906238E-09</v>
+        <v>1.185354994131351E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340765E-14</v>
+        <v>-1.563194052511147E-14</v>
       </c>
       <c r="X4">
-        <v>1.940846141098146E-09</v>
+        <v>1.940836193704566E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185346621869802E-09</v>
+        <v>-1.18535918020747E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2040,34 +2040,34 @@
         <v>0.681668345818752</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443624</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299574</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277812</v>
       </c>
       <c r="AL4">
-        <v>5.447990994124733E-13</v>
+        <v>5.645295462270565E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO4">
-        <v>5.609448367570525E-13</v>
+        <v>5.719695876329663E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2111,40 +2111,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.977129648728667E-28</v>
+        <v>-5.21064684170367E-15</v>
       </c>
       <c r="O5">
-        <v>1.534158515026858E-14</v>
+        <v>-1.415234137687854E-14</v>
       </c>
       <c r="P5">
-        <v>-6.690245989935963E-15</v>
+        <v>4.186112554260997E-15</v>
       </c>
       <c r="Q5">
-        <v>-1.563194052511117E-14</v>
+        <v>-5.210646841703825E-15</v>
       </c>
       <c r="R5">
-        <v>2.522968677878239E-15</v>
+        <v>2.662270363517158E-14</v>
       </c>
       <c r="S5">
-        <v>6.690245989935963E-15</v>
+        <v>-2.504133435675003E-15</v>
       </c>
       <c r="T5">
-        <v>2.08425873668151E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="U5">
-        <v>1.751629961404952E-14</v>
+        <v>2.871222891975529E-15</v>
       </c>
       <c r="V5">
-        <v>7.550070791432991E-15</v>
+        <v>-1.681979118585993E-15</v>
       </c>
       <c r="W5">
-        <v>-1.563194052511147E-14</v>
+        <v>5.210646841703722E-15</v>
       </c>
       <c r="X5">
-        <v>-9.352771693719782E-15</v>
+        <v>4.927353451954669E-16</v>
       </c>
       <c r="Y5">
-        <v>-7.550070791432993E-15</v>
+        <v>5.86809167284699E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187521</v>
+        <v>0.681668345818752</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AI5">
         <v>1.100000023812017</v>
@@ -2180,25 +2180,25 @@
         <v>0.681668345818752</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443624</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AL5">
-        <v>5.435082623316418E-13</v>
+        <v>5.675475299933785E-13</v>
       </c>
       <c r="AM5">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO5">
-        <v>5.447990994124733E-13</v>
+        <v>5.645295462270565E-13</v>
       </c>
       <c r="AP5">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
     </row>
   </sheetData>
@@ -2386,40 +2386,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.210646841703929E-15</v>
+        <v>-2.60532342085186E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307564051549513E-10</v>
+        <v>-7.307410635698036E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307828491597E-09</v>
+        <v>-2.039314556408058E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052511143E-14</v>
+        <v>2.084258736681483E-14</v>
       </c>
       <c r="R2">
-        <v>7.307617996355367E-10</v>
+        <v>7.307620460032144E-10</v>
       </c>
       <c r="S2">
-        <v>2.039299456555506E-09</v>
+        <v>2.039321246943068E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511128E-14</v>
+        <v>-2.605323420851911E-14</v>
       </c>
       <c r="U2">
-        <v>5.822474143464276E-09</v>
+        <v>5.822491659763896E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556048237506592E-09</v>
+        <v>-3.556064981956822E-09</v>
       </c>
       <c r="W2">
-        <v>1.04212936834074E-14</v>
+        <v>2.605323420851907E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822469343566672E-09</v>
+        <v>-5.822482654918493E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556051601792752E-09</v>
+        <v>3.556057432213956E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2440,40 +2440,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635722</v>
+        <v>0.6816683458635729</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780336</v>
+        <v>0.4761907155780343</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299574</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277812</v>
       </c>
       <c r="AL2">
-        <v>5.619264055562163E-13</v>
+        <v>5.630024027091247E-13</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584275</v>
+        <v>-164.9034422584274</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654784</v>
+        <v>158.1097491654787</v>
       </c>
       <c r="AO2">
-        <v>5.609448367570525E-13</v>
+        <v>5.719695876329663E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2517,40 +2517,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511137E-14</v>
+        <v>-5.161444298007427E-29</v>
       </c>
       <c r="O3">
-        <v>2.43611530557365E-10</v>
+        <v>2.435803546517203E-10</v>
       </c>
       <c r="P3">
-        <v>6.797597827477959E-10</v>
+        <v>6.797798911562474E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841703877E-15</v>
+        <v>-1.042129368340749E-14</v>
       </c>
       <c r="R3">
-        <v>-2.43593665971423E-10</v>
+        <v>-2.435718428374724E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797597827156841E-10</v>
+        <v>-6.797815731032529E-10</v>
       </c>
       <c r="T3">
-        <v>5.210646841703627E-15</v>
+        <v>5.210646841703773E-15</v>
       </c>
       <c r="U3">
-        <v>-1.940822143213295E-09</v>
+        <v>-1.940830553108888E-09</v>
       </c>
       <c r="V3">
-        <v>1.185349985864476E-09</v>
+        <v>1.185351630173114E-09</v>
       </c>
       <c r="W3">
-        <v>-1.04212936834075E-14</v>
+        <v>-5.210646841703876E-15</v>
       </c>
       <c r="X3">
-        <v>1.940830306777651E-09</v>
+        <v>1.940836193704566E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185349985828039E-09</v>
+        <v>-1.185355816249233E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2574,37 +2574,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187521</v>
+        <v>0.681668345818752</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299574</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277812</v>
       </c>
       <c r="AL3">
-        <v>5.435082623316418E-13</v>
+        <v>5.675475299933785E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO3">
-        <v>5.609448367570525E-13</v>
+        <v>5.719695876329663E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2648,40 +2648,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.0842587366815E-14</v>
+        <v>5.21064684170367E-15</v>
       </c>
       <c r="O4">
-        <v>2.436024241533438E-10</v>
+        <v>2.435928250139789E-10</v>
       </c>
       <c r="P4">
-        <v>6.797681549729043E-10</v>
+        <v>6.797715189311389E-10</v>
       </c>
       <c r="Q4">
-        <v>1.042129368340745E-14</v>
+        <v>-1.563194052511116E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435845595674015E-10</v>
+        <v>-2.435718428374724E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797681549407923E-10</v>
+        <v>-6.797732008781447E-10</v>
       </c>
       <c r="T4">
-        <v>-1.042129368340775E-14</v>
+        <v>1.04212936834076E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940837977533791E-09</v>
+        <v>-1.940827189150651E-09</v>
       </c>
       <c r="V4">
-        <v>1.185346621906238E-09</v>
+        <v>1.185354994131351E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340765E-14</v>
+        <v>-1.563194052511147E-14</v>
       </c>
       <c r="X4">
-        <v>1.940846141098146E-09</v>
+        <v>1.940836193704566E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185346621869802E-09</v>
+        <v>-1.18535918020747E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2708,34 +2708,34 @@
         <v>0.681668345818752</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443624</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299574</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277812</v>
       </c>
       <c r="AL4">
-        <v>5.447990994124733E-13</v>
+        <v>5.645295462270565E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO4">
-        <v>5.609448367570525E-13</v>
+        <v>5.719695876329663E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642545</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2779,40 +2779,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.977129648728667E-28</v>
+        <v>-5.21064684170367E-15</v>
       </c>
       <c r="O5">
-        <v>1.534158515026858E-14</v>
+        <v>-1.415234137687854E-14</v>
       </c>
       <c r="P5">
-        <v>-6.690245989935963E-15</v>
+        <v>4.186112554260997E-15</v>
       </c>
       <c r="Q5">
-        <v>-1.563194052511117E-14</v>
+        <v>-5.210646841703825E-15</v>
       </c>
       <c r="R5">
-        <v>2.522968677878239E-15</v>
+        <v>2.662270363517158E-14</v>
       </c>
       <c r="S5">
-        <v>6.690245989935963E-15</v>
+        <v>-2.504133435675003E-15</v>
       </c>
       <c r="T5">
-        <v>2.08425873668151E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="U5">
-        <v>1.751629961404952E-14</v>
+        <v>2.871222891975529E-15</v>
       </c>
       <c r="V5">
-        <v>7.550070791432991E-15</v>
+        <v>-1.681979118585993E-15</v>
       </c>
       <c r="W5">
-        <v>-1.563194052511147E-14</v>
+        <v>5.210646841703722E-15</v>
       </c>
       <c r="X5">
-        <v>-9.352771693719782E-15</v>
+        <v>4.927353451954669E-16</v>
       </c>
       <c r="Y5">
-        <v>-7.550070791432993E-15</v>
+        <v>5.86809167284699E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187521</v>
+        <v>0.681668345818752</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AI5">
         <v>1.100000023812017</v>
@@ -2848,25 +2848,25 @@
         <v>0.681668345818752</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443624</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AL5">
-        <v>5.435082623316418E-13</v>
+        <v>5.675475299933785E-13</v>
       </c>
       <c r="AM5">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
       <c r="AO5">
-        <v>5.447990994124733E-13</v>
+        <v>5.645295462270565E-13</v>
       </c>
       <c r="AP5">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638465</v>
       </c>
     </row>
   </sheetData>
@@ -3054,40 +3054,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.131628207281076E-14</v>
+        <v>1.657933050107481E-14</v>
       </c>
       <c r="O2">
-        <v>1.302651450832089E-14</v>
+        <v>1.776346608294755E-14</v>
       </c>
       <c r="P2">
-        <v>1.421075183225518E-14</v>
+        <v>-4.737054463643634E-15</v>
       </c>
       <c r="Q2">
-        <v>-2.131628207281077E-14</v>
+        <v>-1.65793305010748E-14</v>
       </c>
       <c r="R2">
-        <v>-1.302583498009507E-14</v>
+        <v>-1.421007287467315E-14</v>
       </c>
       <c r="S2">
-        <v>-7.104644939524591E-15</v>
+        <v>4.737734000939222E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471520683E-14</v>
+        <v>9.473903143471596E-15</v>
       </c>
       <c r="U2">
-        <v>4.763111385045251E-09</v>
+        <v>4.76314217523044E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763132704818049E-09</v>
+        <v>-4.763127967866465E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520683E-14</v>
+        <v>-9.473903143471598E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763111384643682E-09</v>
+        <v>-4.763130332449948E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364889E-09</v>
+        <v>4.763127968268031E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3108,34 +3108,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000356</v>
+        <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169629</v>
+        <v>0.4999999998169612</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833955</v>
+        <v>0.5000000001833943</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748073</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225548</v>
       </c>
       <c r="AL2">
-        <v>6.493179824892998E-13</v>
+        <v>7.286514520724888E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987621</v>
       </c>
       <c r="AN2">
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>6.429971712676169E-13</v>
+        <v>7.447983655382407E-13</v>
       </c>
       <c r="AP2">
         <v>-179.999999990588</v>
@@ -3185,40 +3185,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.131628207281072E-14</v>
+        <v>-2.131628207281054E-14</v>
       </c>
       <c r="O3">
-        <v>-1.065780491484833E-14</v>
+        <v>-1.183901776767399E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615260736931E-15</v>
+        <v>9.474239462630845E-15</v>
       </c>
       <c r="Q3">
-        <v>1.894780628694293E-14</v>
+        <v>1.89478062869427E-14</v>
       </c>
       <c r="R3">
-        <v>1.065788041846238E-14</v>
+        <v>4.736690956669308E-15</v>
       </c>
       <c r="S3">
-        <v>1.184211812498944E-14</v>
+        <v>-9.474163958839448E-15</v>
       </c>
       <c r="T3">
-        <v>9.473903143471146E-15</v>
+        <v>-4.736951571735959E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587710110772036E-09</v>
+        <v>-1.587707742296246E-09</v>
       </c>
       <c r="V3">
-        <v>1.587717217719922E-09</v>
+        <v>1.587721954671493E-09</v>
       </c>
       <c r="W3">
-        <v>-1.421085471520686E-14</v>
+        <v>4.736951571735938E-15</v>
       </c>
       <c r="X3">
-        <v>1.587710110816654E-09</v>
+        <v>1.587719584719788E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587721954626873E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3239,25 +3239,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607563</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395999</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748073</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225548</v>
       </c>
       <c r="AL3">
-        <v>6.304574187411997E-13</v>
+        <v>7.27586068779405E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
@@ -3266,7 +3266,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>6.429971712676169E-13</v>
+        <v>7.447983655382407E-13</v>
       </c>
       <c r="AP3">
         <v>-179.999999990588</v>
@@ -3316,40 +3316,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.894780628694292E-14</v>
+        <v>-2.605323364454641E-14</v>
       </c>
       <c r="O4">
-        <v>-1.18390177520837E-15</v>
+        <v>3.553049795058188E-15</v>
       </c>
       <c r="P4">
-        <v>-9.473566834740874E-15</v>
+        <v>3.363146229499226E-19</v>
       </c>
       <c r="Q4">
-        <v>1.894780628694293E-14</v>
+        <v>2.368475785867852E-14</v>
       </c>
       <c r="R4">
-        <v>5.920928847306737E-15</v>
+        <v>4.736690956669308E-15</v>
       </c>
       <c r="S4">
-        <v>1.657906969886026E-14</v>
+        <v>-2.608110978060321E-19</v>
       </c>
       <c r="T4">
-        <v>1.421085471520686E-14</v>
+        <v>9.473903143471053E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710110772034E-09</v>
+        <v>-1.587717216199384E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719922E-09</v>
+        <v>1.587721954671495E-09</v>
       </c>
       <c r="W4">
-        <v>-1.421085471520686E-14</v>
+        <v>-4.736951571735383E-15</v>
       </c>
       <c r="X4">
-        <v>1.587719584719793E-09</v>
+        <v>1.587719584719788E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587721954626874E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3370,25 +3370,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607563</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395998</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748073</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225548</v>
       </c>
       <c r="AL4">
-        <v>6.268133933251543E-13</v>
+        <v>7.175373990046493E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
@@ -3397,7 +3397,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>6.429971712676169E-13</v>
+        <v>7.447983655382407E-13</v>
       </c>
       <c r="AP4">
         <v>-179.999999990588</v>
@@ -3447,40 +3447,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785867794E-15</v>
+        <v>2.368475785867965E-15</v>
       </c>
       <c r="O5">
-        <v>-7.105427355705368E-15</v>
+        <v>-1.184237894873873E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>4.736951575007338E-15</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-7.105427357603712E-15</v>
       </c>
       <c r="R5">
-        <v>9.473903140439092E-15</v>
+        <v>3.552713675596361E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427358999136E-15</v>
+        <v>-2.368475785998582E-15</v>
       </c>
       <c r="T5">
-        <v>-4.736951571735718E-15</v>
+        <v>-9.473903143471347E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427352696946E-15</v>
+        <v>1.184237892341787E-14</v>
       </c>
       <c r="V5">
-        <v>4.736951574003945E-15</v>
+        <v>4.736951573000557E-15</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.421085471520698E-14</v>
       </c>
       <c r="X5">
-        <v>-7.105427352195539E-15</v>
+        <v>7.105427354953251E-15</v>
       </c>
       <c r="Y5">
-        <v>-9.473903149512974E-15</v>
+        <v>4.736951574505642E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3501,25 +3501,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607563</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395999</v>
       </c>
       <c r="AI5">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607563</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395998</v>
       </c>
       <c r="AL5">
-        <v>6.304574187411997E-13</v>
+        <v>7.27586068779405E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
@@ -3528,7 +3528,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO5">
-        <v>6.268133933251543E-13</v>
+        <v>7.175373990046493E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
@@ -3722,40 +3722,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.131628207281076E-14</v>
+        <v>1.657933050107481E-14</v>
       </c>
       <c r="O2">
-        <v>1.302651450832089E-14</v>
+        <v>1.776346608294755E-14</v>
       </c>
       <c r="P2">
-        <v>1.421075183225518E-14</v>
+        <v>-4.737054463643634E-15</v>
       </c>
       <c r="Q2">
-        <v>-2.131628207281077E-14</v>
+        <v>-1.65793305010748E-14</v>
       </c>
       <c r="R2">
-        <v>-1.302583498009507E-14</v>
+        <v>-1.421007287467315E-14</v>
       </c>
       <c r="S2">
-        <v>-7.104644939524591E-15</v>
+        <v>4.737734000939222E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471520683E-14</v>
+        <v>9.473903143471596E-15</v>
       </c>
       <c r="U2">
-        <v>4.763111385045251E-09</v>
+        <v>4.76314217523044E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763132704818049E-09</v>
+        <v>-4.763127967866465E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520683E-14</v>
+        <v>-9.473903143471598E-15</v>
       </c>
       <c r="X2">
-        <v>-4.763111384643682E-09</v>
+        <v>-4.763130332449948E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364889E-09</v>
+        <v>4.763127968268031E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3776,34 +3776,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000356</v>
+        <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169629</v>
+        <v>0.4999999998169612</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833955</v>
+        <v>0.5000000001833943</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748073</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225548</v>
       </c>
       <c r="AL2">
-        <v>6.493179824892998E-13</v>
+        <v>7.286514520724888E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987621</v>
       </c>
       <c r="AN2">
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>6.429971712676169E-13</v>
+        <v>7.447983655382407E-13</v>
       </c>
       <c r="AP2">
         <v>-179.999999990588</v>
@@ -3853,40 +3853,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.131628207281072E-14</v>
+        <v>-2.131628207281054E-14</v>
       </c>
       <c r="O3">
-        <v>-1.065780491484833E-14</v>
+        <v>-1.183901776767399E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615260736931E-15</v>
+        <v>9.474239462630845E-15</v>
       </c>
       <c r="Q3">
-        <v>1.894780628694293E-14</v>
+        <v>1.89478062869427E-14</v>
       </c>
       <c r="R3">
-        <v>1.065788041846238E-14</v>
+        <v>4.736690956669308E-15</v>
       </c>
       <c r="S3">
-        <v>1.184211812498944E-14</v>
+        <v>-9.474163958839448E-15</v>
       </c>
       <c r="T3">
-        <v>9.473903143471146E-15</v>
+        <v>-4.736951571735959E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587710110772036E-09</v>
+        <v>-1.587707742296246E-09</v>
       </c>
       <c r="V3">
-        <v>1.587717217719922E-09</v>
+        <v>1.587721954671493E-09</v>
       </c>
       <c r="W3">
-        <v>-1.421085471520686E-14</v>
+        <v>4.736951571735938E-15</v>
       </c>
       <c r="X3">
-        <v>1.587710110816654E-09</v>
+        <v>1.587719584719788E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587721954626873E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3907,25 +3907,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607563</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395999</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748073</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225548</v>
       </c>
       <c r="AL3">
-        <v>6.304574187411997E-13</v>
+        <v>7.27586068779405E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
@@ -3934,7 +3934,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>6.429971712676169E-13</v>
+        <v>7.447983655382407E-13</v>
       </c>
       <c r="AP3">
         <v>-179.999999990588</v>
@@ -3984,40 +3984,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.894780628694292E-14</v>
+        <v>-2.605323364454641E-14</v>
       </c>
       <c r="O4">
-        <v>-1.18390177520837E-15</v>
+        <v>3.553049795058188E-15</v>
       </c>
       <c r="P4">
-        <v>-9.473566834740874E-15</v>
+        <v>3.363146229499226E-19</v>
       </c>
       <c r="Q4">
-        <v>1.894780628694293E-14</v>
+        <v>2.368475785867852E-14</v>
       </c>
       <c r="R4">
-        <v>5.920928847306737E-15</v>
+        <v>4.736690956669308E-15</v>
       </c>
       <c r="S4">
-        <v>1.657906969886026E-14</v>
+        <v>-2.608110978060321E-19</v>
       </c>
       <c r="T4">
-        <v>1.421085471520686E-14</v>
+        <v>9.473903143471053E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710110772034E-09</v>
+        <v>-1.587717216199384E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719922E-09</v>
+        <v>1.587721954671495E-09</v>
       </c>
       <c r="W4">
-        <v>-1.421085471520686E-14</v>
+        <v>-4.736951571735383E-15</v>
       </c>
       <c r="X4">
-        <v>1.587719584719793E-09</v>
+        <v>1.587719584719788E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587721954626874E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4038,25 +4038,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607563</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395998</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748073</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255485</v>
+        <v>0.500000000225548</v>
       </c>
       <c r="AL4">
-        <v>6.268133933251543E-13</v>
+        <v>7.175373990046493E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
@@ -4065,7 +4065,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>6.429971712676169E-13</v>
+        <v>7.447983655382407E-13</v>
       </c>
       <c r="AP4">
         <v>-179.999999990588</v>
@@ -4115,40 +4115,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785867794E-15</v>
+        <v>2.368475785867965E-15</v>
       </c>
       <c r="O5">
-        <v>-7.105427355705368E-15</v>
+        <v>-1.184237894873873E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>4.736951575007338E-15</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-7.105427357603712E-15</v>
       </c>
       <c r="R5">
-        <v>9.473903140439092E-15</v>
+        <v>3.552713675596361E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427358999136E-15</v>
+        <v>-2.368475785998582E-15</v>
       </c>
       <c r="T5">
-        <v>-4.736951571735718E-15</v>
+        <v>-9.473903143471347E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427352696946E-15</v>
+        <v>1.184237892341787E-14</v>
       </c>
       <c r="V5">
-        <v>4.736951574003945E-15</v>
+        <v>4.736951573000557E-15</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.421085471520698E-14</v>
       </c>
       <c r="X5">
-        <v>-7.105427352195539E-15</v>
+        <v>7.105427354953251E-15</v>
       </c>
       <c r="Y5">
-        <v>-9.473903149512974E-15</v>
+        <v>4.736951574505642E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4169,25 +4169,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607563</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395999</v>
       </c>
       <c r="AI5">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607563</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395998</v>
       </c>
       <c r="AL5">
-        <v>6.304574187411997E-13</v>
+        <v>7.27586068779405E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
@@ -4196,7 +4196,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO5">
-        <v>6.268133933251543E-13</v>
+        <v>7.175373990046493E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
@@ -4390,40 +4390,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.605323364468834E-14</v>
+        <v>4.736951571761403E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559438601015702E-10</v>
+        <v>-5.55950068315144E-10</v>
       </c>
       <c r="P2">
         <v>-1.551456747312587E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.894780628704615E-14</v>
+        <v>7.670950281155967E-29</v>
       </c>
       <c r="R2">
-        <v>5.559442358533699E-10</v>
+        <v>5.559532412371194E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457323156361E-09</v>
+        <v>1.551462567136517E-09</v>
       </c>
       <c r="T2">
-        <v>-2.131628207292642E-14</v>
+        <v>7.105427357642266E-15</v>
       </c>
       <c r="U2">
-        <v>4.833145536304521E-09</v>
+        <v>4.83315883994671E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108898961877404E-09</v>
+        <v>-3.108898961877403E-09</v>
       </c>
       <c r="W2">
-        <v>2.368475785880723E-14</v>
+        <v>-7.105427357642218E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833140999161421E-09</v>
+        <v>-4.833153620594929E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108894400389425E-09</v>
+        <v>3.108896915534859E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4444,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891389</v>
+        <v>0.6078088903891384</v>
       </c>
       <c r="AH2">
         <v>0.4340870104140596</v>
@@ -4456,13 +4456,13 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725137</v>
       </c>
       <c r="AL2">
-        <v>5.449228582527957E-13</v>
+        <v>5.98277568357664E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
@@ -4471,10 +4471,10 @@
         <v>160.6235536346806</v>
       </c>
       <c r="AO2">
-        <v>5.379631538231196E-13</v>
+        <v>6.185596641026729E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ2">
         <v>160.6235536296895</v>
@@ -4521,40 +4521,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116521E-14</v>
+        <v>-1.184237892940374E-14</v>
       </c>
       <c r="O3">
-        <v>1.853108906868387E-10</v>
+        <v>1.853143700656939E-10</v>
       </c>
       <c r="P3">
-        <v>5.171548356926079E-10</v>
+        <v>5.171614440901238E-10</v>
       </c>
       <c r="Q3">
-        <v>2.131628207292667E-14</v>
+        <v>1.184237892940375E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853091509441078E-10</v>
+        <v>-1.853139947403225E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171528958579068E-10</v>
+        <v>-5.171595042554221E-10</v>
       </c>
       <c r="T3">
-        <v>2.368475785880587E-15</v>
+        <v>4.736951571761352E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611049421587082E-09</v>
+        <v>-1.611051536548574E-09</v>
       </c>
       <c r="V3">
-        <v>1.03629874447356E-09</v>
+        <v>1.03630513918179E-09</v>
       </c>
       <c r="W3">
-        <v>2.001434386474658E-28</v>
+        <v>-4.736951571761351E-15</v>
       </c>
       <c r="X3">
-        <v>1.611048364137834E-09</v>
+        <v>1.611056073439675E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.03629942665074E-09</v>
+        <v>-1.036305821358969E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4575,25 +4575,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513554</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725137</v>
       </c>
       <c r="AL3">
-        <v>5.299044281279242E-13</v>
+        <v>6.081489864949895E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222524</v>
@@ -4602,10 +4602,10 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>5.379631538231196E-13</v>
+        <v>6.185596641026729E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ3">
         <v>160.6235536296895</v>
@@ -4652,40 +4652,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.18423789294037E-14</v>
+        <v>-7.105427357642217E-15</v>
       </c>
       <c r="O4">
-        <v>1.853234437848968E-10</v>
+        <v>1.85324057658124E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831363E-10</v>
+        <v>5.171575645273286E-10</v>
       </c>
       <c r="Q4">
-        <v>1.421085471528444E-14</v>
+        <v>9.473903143522907E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853202712893511E-10</v>
+        <v>-1.853181563278568E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171503807124721E-10</v>
+        <v>-5.171569891099875E-10</v>
       </c>
       <c r="T4">
-        <v>-1.093121344354784E-28</v>
+        <v>-7.46853252578165E-29</v>
       </c>
       <c r="U4">
-        <v>-1.61105228709271E-09</v>
+        <v>-1.61106695515226E-09</v>
       </c>
       <c r="V4">
-        <v>1.03630855022519E-09</v>
+        <v>1.03630650359915E-09</v>
       </c>
       <c r="W4">
-        <v>1.334289590983106E-28</v>
+        <v>4.736951571761581E-15</v>
       </c>
       <c r="X4">
-        <v>1.611057506192491E-09</v>
+        <v>1.611060985571345E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036304670630895E-09</v>
+        <v>-1.036311065339124E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4706,25 +4706,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919986</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725137</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>6.022373762265109E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222524</v>
@@ -4733,10 +4733,10 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO4">
-        <v>5.379631538231196E-13</v>
+        <v>6.185596641026729E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ4">
         <v>160.6235536296895</v>
@@ -4783,40 +4783,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-4.736951571761503E-15</v>
+        <v>-7.105427357642292E-15</v>
       </c>
       <c r="O5">
-        <v>-1.07792409033319E-14</v>
+        <v>-5.526004894697093E-15</v>
       </c>
       <c r="P5">
-        <v>3.879562794843453E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>7.105427357642221E-15</v>
+        <v>2.368475785880814E-15</v>
       </c>
       <c r="R5">
-        <v>1.149561731041243E-14</v>
+        <v>6.242381301777626E-15</v>
       </c>
       <c r="S5">
-        <v>-1.939781397421726E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.368475785880697E-15</v>
+        <v>7.105427357642141E-15</v>
       </c>
       <c r="U5">
-        <v>7.743469569921062E-15</v>
+        <v>1.05064720172696E-14</v>
       </c>
       <c r="V5">
-        <v>-1.36441736017916E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>6.558728066128705E-29</v>
+        <v>-7.105427357642191E-15</v>
       </c>
       <c r="X5">
-        <v>-4.605195055536653E-15</v>
+        <v>-7.36819750288519E-15</v>
       </c>
       <c r="Y5">
-        <v>6.822086800895803E-16</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4837,25 +4837,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513554</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI5">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513557</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919986</v>
       </c>
       <c r="AL5">
-        <v>5.299044281279242E-13</v>
+        <v>6.081489864949895E-13</v>
       </c>
       <c r="AM5">
         <v>-166.2935793222524</v>
@@ -4864,7 +4864,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>6.022373762265109E-13</v>
       </c>
       <c r="AP5">
         <v>-166.2935793222524</v>
@@ -5058,40 +5058,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.605323364468834E-14</v>
+        <v>4.736951571761403E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559438601015702E-10</v>
+        <v>-5.55950068315144E-10</v>
       </c>
       <c r="P2">
         <v>-1.551456747312587E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.894780628704615E-14</v>
+        <v>7.670950281155967E-29</v>
       </c>
       <c r="R2">
-        <v>5.559442358533699E-10</v>
+        <v>5.559532412371194E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457323156361E-09</v>
+        <v>1.551462567136517E-09</v>
       </c>
       <c r="T2">
-        <v>-2.131628207292642E-14</v>
+        <v>7.105427357642266E-15</v>
       </c>
       <c r="U2">
-        <v>4.833145536304521E-09</v>
+        <v>4.83315883994671E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108898961877404E-09</v>
+        <v>-3.108898961877403E-09</v>
       </c>
       <c r="W2">
-        <v>2.368475785880723E-14</v>
+        <v>-7.105427357642218E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833140999161421E-09</v>
+        <v>-4.833153620594929E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108894400389425E-09</v>
+        <v>3.108896915534859E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891389</v>
+        <v>0.6078088903891384</v>
       </c>
       <c r="AH2">
         <v>0.4340870104140596</v>
@@ -5124,13 +5124,13 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725137</v>
       </c>
       <c r="AL2">
-        <v>5.449228582527957E-13</v>
+        <v>5.98277568357664E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
@@ -5139,10 +5139,10 @@
         <v>160.6235536346806</v>
       </c>
       <c r="AO2">
-        <v>5.379631538231196E-13</v>
+        <v>6.185596641026729E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ2">
         <v>160.6235536296895</v>
@@ -5189,40 +5189,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116521E-14</v>
+        <v>-1.184237892940374E-14</v>
       </c>
       <c r="O3">
-        <v>1.853108906868387E-10</v>
+        <v>1.853143700656939E-10</v>
       </c>
       <c r="P3">
-        <v>5.171548356926079E-10</v>
+        <v>5.171614440901238E-10</v>
       </c>
       <c r="Q3">
-        <v>2.131628207292667E-14</v>
+        <v>1.184237892940375E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853091509441078E-10</v>
+        <v>-1.853139947403225E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171528958579068E-10</v>
+        <v>-5.171595042554221E-10</v>
       </c>
       <c r="T3">
-        <v>2.368475785880587E-15</v>
+        <v>4.736951571761352E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611049421587082E-09</v>
+        <v>-1.611051536548574E-09</v>
       </c>
       <c r="V3">
-        <v>1.03629874447356E-09</v>
+        <v>1.03630513918179E-09</v>
       </c>
       <c r="W3">
-        <v>2.001434386474658E-28</v>
+        <v>-4.736951571761351E-15</v>
       </c>
       <c r="X3">
-        <v>1.611048364137834E-09</v>
+        <v>1.611056073439675E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.03629942665074E-09</v>
+        <v>-1.036305821358969E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5243,25 +5243,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513554</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725137</v>
       </c>
       <c r="AL3">
-        <v>5.299044281279242E-13</v>
+        <v>6.081489864949895E-13</v>
       </c>
       <c r="AM3">
         <v>-166.2935793222524</v>
@@ -5270,10 +5270,10 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>5.379631538231196E-13</v>
+        <v>6.185596641026729E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ3">
         <v>160.6235536296895</v>
@@ -5320,40 +5320,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.18423789294037E-14</v>
+        <v>-7.105427357642217E-15</v>
       </c>
       <c r="O4">
-        <v>1.853234437848968E-10</v>
+        <v>1.85324057658124E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831363E-10</v>
+        <v>5.171575645273286E-10</v>
       </c>
       <c r="Q4">
-        <v>1.421085471528444E-14</v>
+        <v>9.473903143522907E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853202712893511E-10</v>
+        <v>-1.853181563278568E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171503807124721E-10</v>
+        <v>-5.171569891099875E-10</v>
       </c>
       <c r="T4">
-        <v>-1.093121344354784E-28</v>
+        <v>-7.46853252578165E-29</v>
       </c>
       <c r="U4">
-        <v>-1.61105228709271E-09</v>
+        <v>-1.61106695515226E-09</v>
       </c>
       <c r="V4">
-        <v>1.03630855022519E-09</v>
+        <v>1.03630650359915E-09</v>
       </c>
       <c r="W4">
-        <v>1.334289590983106E-28</v>
+        <v>4.736951571761581E-15</v>
       </c>
       <c r="X4">
-        <v>1.611057506192491E-09</v>
+        <v>1.611060985571345E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036304670630895E-09</v>
+        <v>-1.036311065339124E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5374,25 +5374,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919986</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725137</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>6.022373762265109E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222524</v>
@@ -5401,10 +5401,10 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO4">
-        <v>5.379631538231196E-13</v>
+        <v>6.185596641026729E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ4">
         <v>160.6235536296895</v>
@@ -5451,40 +5451,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-4.736951571761503E-15</v>
+        <v>-7.105427357642292E-15</v>
       </c>
       <c r="O5">
-        <v>-1.07792409033319E-14</v>
+        <v>-5.526004894697093E-15</v>
       </c>
       <c r="P5">
-        <v>3.879562794843453E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>7.105427357642221E-15</v>
+        <v>2.368475785880814E-15</v>
       </c>
       <c r="R5">
-        <v>1.149561731041243E-14</v>
+        <v>6.242381301777626E-15</v>
       </c>
       <c r="S5">
-        <v>-1.939781397421726E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.368475785880697E-15</v>
+        <v>7.105427357642141E-15</v>
       </c>
       <c r="U5">
-        <v>7.743469569921062E-15</v>
+        <v>1.05064720172696E-14</v>
       </c>
       <c r="V5">
-        <v>-1.36441736017916E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>6.558728066128705E-29</v>
+        <v>-7.105427357642191E-15</v>
       </c>
       <c r="X5">
-        <v>-4.605195055536653E-15</v>
+        <v>-7.36819750288519E-15</v>
       </c>
       <c r="Y5">
-        <v>6.822086800895803E-16</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -5505,25 +5505,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513554</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919987</v>
       </c>
       <c r="AI5">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513557</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919986</v>
       </c>
       <c r="AL5">
-        <v>5.299044281279242E-13</v>
+        <v>6.081489864949895E-13</v>
       </c>
       <c r="AM5">
         <v>-166.2935793222524</v>
@@ -5532,7 +5532,7 @@
         <v>160.6235536280259</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>6.022373762265109E-13</v>
       </c>
       <c r="AP5">
         <v>-166.2935793222524</v>
@@ -5729,40 +5729,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957756375909227E-09</v>
+        <v>-2.957794153098834E-09</v>
       </c>
       <c r="O2">
-        <v>-7.39469138691326E-10</v>
+        <v>-7.394865075141367E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394012416465706E-10</v>
+        <v>-7.393939534237845E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957755941942429E-09</v>
+        <v>2.957796758676033E-09</v>
       </c>
       <c r="R2">
-        <v>7.394687045341993E-10</v>
+        <v>7.39479304528209E-10</v>
       </c>
       <c r="S2">
-        <v>7.394048858214109E-10</v>
+        <v>7.394038470334407E-10</v>
       </c>
       <c r="T2">
-        <v>2.084173012249856E-14</v>
+        <v>2.431549465084502E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842211983831569E-09</v>
+        <v>-3.842302234882285E-09</v>
       </c>
       <c r="V2">
-        <v>3.842284716167732E-09</v>
+        <v>3.842295478155085E-09</v>
       </c>
       <c r="W2">
-        <v>-1.823611876698371E-14</v>
+        <v>-1.389391302437844E-14</v>
       </c>
       <c r="X2">
-        <v>3.842209727627284E-09</v>
+        <v>3.842301281339715E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.84227933510207E-09</v>
+        <v>-3.842298253753353E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5783,40 +5783,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541439</v>
+        <v>0.3666666746541438</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760887</v>
+        <v>0.9701088351760896</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717373</v>
+        <v>0.9701088350717381</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965889</v>
       </c>
       <c r="AL2">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571843</v>
       </c>
       <c r="AM2">
-        <v>1.660604809896655E-08</v>
+        <v>1.660648037351597E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492837</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504708</v>
+        <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.218376233036782E-08</v>
+        <v>2.21842352905271E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5860,40 +5860,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859182131217694E-10</v>
+        <v>9.859394899297126E-10</v>
       </c>
       <c r="O3">
-        <v>2.464984485499971E-10</v>
+        <v>2.464928972094885E-10</v>
       </c>
       <c r="P3">
-        <v>2.464646511694585E-10</v>
+        <v>2.464466009593191E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859151735495849E-10</v>
+        <v>-9.859334108135353E-10</v>
       </c>
       <c r="R3">
-        <v>-2.465079078685894E-10</v>
+        <v>-2.465091253568847E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464519819459445E-10</v>
+        <v>-2.464375758471999E-10</v>
       </c>
       <c r="T3">
-        <v>-6.947115403829659E-15</v>
+        <v>-3.473350824330321E-15</v>
       </c>
       <c r="U3">
-        <v>1.28073408690939E-09</v>
+        <v>1.280753874001816E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280765159353034E-09</v>
+        <v>-1.280768633117597E-09</v>
       </c>
       <c r="W3">
-        <v>1.64999999427329E-14</v>
+        <v>1.389467650610155E-14</v>
       </c>
       <c r="X3">
-        <v>-1.280734606295378E-09</v>
+        <v>-1.280753090726093E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280772277236989E-09</v>
+        <v>1.280770370007876E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5914,25 +5914,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034219</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523327</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965889</v>
       </c>
       <c r="AL3">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571843</v>
       </c>
       <c r="AM3">
-        <v>2.40429888495575E-08</v>
+        <v>2.404348645443327E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
@@ -5941,13 +5941,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP3">
-        <v>2.218376233036782E-08</v>
+        <v>2.21842352905271E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5991,40 +5991,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859147393572045E-10</v>
+        <v>9.859394899297103E-10</v>
       </c>
       <c r="O4">
-        <v>2.464911603272067E-10</v>
+        <v>2.464783207639078E-10</v>
       </c>
       <c r="P4">
-        <v>2.464620458460369E-10</v>
+        <v>2.464564945055296E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859151735495824E-10</v>
+        <v>-9.859368845780917E-10</v>
       </c>
       <c r="R4">
-        <v>-2.465014880869395E-10</v>
+        <v>-2.464936804701633E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464575332864526E-10</v>
+        <v>-2.464564944984805E-10</v>
       </c>
       <c r="T4">
-        <v>4.137185029558344E-19</v>
+        <v>3.474178299343676E-15</v>
       </c>
       <c r="U4">
-        <v>1.280744848896742E-09</v>
+        <v>1.280775397976521E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280751621695429E-09</v>
+        <v>-1.28077140878785E-09</v>
       </c>
       <c r="W4">
-        <v>9.552470818915106E-15</v>
+        <v>-3.817428790561519E-19</v>
       </c>
       <c r="X4">
-        <v>-1.280749880835266E-09</v>
+        <v>-1.280770102148262E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280752490144568E-09</v>
+        <v>1.280771408795849E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6045,25 +6045,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960908</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034219</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523327</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965889</v>
       </c>
       <c r="AL4">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571843</v>
       </c>
       <c r="AM4">
-        <v>2.404297570527625E-08</v>
+        <v>2.404346655023823E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
@@ -6072,13 +6072,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP4">
-        <v>2.218376233036782E-08</v>
+        <v>2.21842352905271E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6122,40 +6122,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.079087982421157E-15</v>
+        <v>3.039543992121652E-15</v>
       </c>
       <c r="O5">
-        <v>-3.776048263742492E-15</v>
+        <v>9.761609343440907E-15</v>
       </c>
       <c r="P5">
-        <v>1.423575191301074E-14</v>
+        <v>8.684411405021422E-16</v>
       </c>
       <c r="Q5">
-        <v>-3.907985134445813E-15</v>
+        <v>-4.342205753530602E-16</v>
       </c>
       <c r="R5">
-        <v>-1.223499589643031E-14</v>
+        <v>-2.039165982738387E-14</v>
       </c>
       <c r="S5">
-        <v>-8.854758237509651E-15</v>
+        <v>8.15666392949576E-15</v>
       </c>
       <c r="T5">
-        <v>2.605323424057147E-15</v>
+        <v>-8.68441139226555E-16</v>
       </c>
       <c r="U5">
-        <v>-7.462746367272616E-15</v>
+        <v>-1.00680697887788E-14</v>
       </c>
       <c r="V5">
-        <v>-2.533843292898942E-14</v>
+        <v>-4.512552534998951E-15</v>
       </c>
       <c r="W5">
-        <v>5.210646841372462E-15</v>
+        <v>1.215817596684667E-14</v>
       </c>
       <c r="X5">
-        <v>9.374152225097855E-15</v>
+        <v>1.562358704182979E-14</v>
       </c>
       <c r="Y5">
-        <v>2.169432153449261E-14</v>
+        <v>6.249434816003236E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6176,25 +6176,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034219</v>
       </c>
       <c r="AI5">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523327</v>
       </c>
       <c r="AJ5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960908</v>
       </c>
       <c r="AK5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034219</v>
       </c>
       <c r="AL5">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523327</v>
       </c>
       <c r="AM5">
-        <v>2.40429888495575E-08</v>
+        <v>2.404348645443327E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946502344</v>
@@ -6203,7 +6203,7 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP5">
-        <v>2.404297570527625E-08</v>
+        <v>2.404346655023823E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946502344</v>
@@ -6400,40 +6400,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957756375909227E-09</v>
+        <v>-2.957794153098834E-09</v>
       </c>
       <c r="O2">
-        <v>-7.39469138691326E-10</v>
+        <v>-7.394865075141367E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394012416465706E-10</v>
+        <v>-7.393939534237845E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957755941942429E-09</v>
+        <v>2.957796758676033E-09</v>
       </c>
       <c r="R2">
-        <v>7.394687045341993E-10</v>
+        <v>7.39479304528209E-10</v>
       </c>
       <c r="S2">
-        <v>7.394048858214109E-10</v>
+        <v>7.394038470334407E-10</v>
       </c>
       <c r="T2">
-        <v>2.084173012249856E-14</v>
+        <v>2.431549465084502E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842211983831569E-09</v>
+        <v>-3.842302234882285E-09</v>
       </c>
       <c r="V2">
-        <v>3.842284716167732E-09</v>
+        <v>3.842295478155085E-09</v>
       </c>
       <c r="W2">
-        <v>-1.823611876698371E-14</v>
+        <v>-1.389391302437844E-14</v>
       </c>
       <c r="X2">
-        <v>3.842209727627284E-09</v>
+        <v>3.842301281339715E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.84227933510207E-09</v>
+        <v>-3.842298253753353E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6454,40 +6454,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541439</v>
+        <v>0.3666666746541438</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760887</v>
+        <v>0.9701088351760896</v>
       </c>
       <c r="AI2">
-        <v>0.9701088350717373</v>
+        <v>0.9701088350717381</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965889</v>
       </c>
       <c r="AL2">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571843</v>
       </c>
       <c r="AM2">
-        <v>1.660604809896655E-08</v>
+        <v>1.660648037351597E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492837</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504708</v>
+        <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.218376233036782E-08</v>
+        <v>2.21842352905271E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6531,40 +6531,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859182131217694E-10</v>
+        <v>9.859394899297126E-10</v>
       </c>
       <c r="O3">
-        <v>2.464984485499971E-10</v>
+        <v>2.464928972094885E-10</v>
       </c>
       <c r="P3">
-        <v>2.464646511694585E-10</v>
+        <v>2.464466009593191E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859151735495849E-10</v>
+        <v>-9.859334108135353E-10</v>
       </c>
       <c r="R3">
-        <v>-2.465079078685894E-10</v>
+        <v>-2.465091253568847E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464519819459445E-10</v>
+        <v>-2.464375758471999E-10</v>
       </c>
       <c r="T3">
-        <v>-6.947115403829659E-15</v>
+        <v>-3.473350824330321E-15</v>
       </c>
       <c r="U3">
-        <v>1.28073408690939E-09</v>
+        <v>1.280753874001816E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280765159353034E-09</v>
+        <v>-1.280768633117597E-09</v>
       </c>
       <c r="W3">
-        <v>1.64999999427329E-14</v>
+        <v>1.389467650610155E-14</v>
       </c>
       <c r="X3">
-        <v>-1.280734606295378E-09</v>
+        <v>-1.280753090726093E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280772277236989E-09</v>
+        <v>1.280770370007876E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6585,25 +6585,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034219</v>
       </c>
       <c r="AI3">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523327</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965889</v>
       </c>
       <c r="AL3">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571843</v>
       </c>
       <c r="AM3">
-        <v>2.40429888495575E-08</v>
+        <v>2.404348645443327E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
@@ -6612,13 +6612,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP3">
-        <v>2.218376233036782E-08</v>
+        <v>2.21842352905271E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6662,40 +6662,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859147393572045E-10</v>
+        <v>9.859394899297103E-10</v>
       </c>
       <c r="O4">
-        <v>2.464911603272067E-10</v>
+        <v>2.464783207639078E-10</v>
       </c>
       <c r="P4">
-        <v>2.464620458460369E-10</v>
+        <v>2.464564945055296E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859151735495824E-10</v>
+        <v>-9.859368845780917E-10</v>
       </c>
       <c r="R4">
-        <v>-2.465014880869395E-10</v>
+        <v>-2.464936804701633E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464575332864526E-10</v>
+        <v>-2.464564944984805E-10</v>
       </c>
       <c r="T4">
-        <v>4.137185029558344E-19</v>
+        <v>3.474178299343676E-15</v>
       </c>
       <c r="U4">
-        <v>1.280744848896742E-09</v>
+        <v>1.280775397976521E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280751621695429E-09</v>
+        <v>-1.28077140878785E-09</v>
       </c>
       <c r="W4">
-        <v>9.552470818915106E-15</v>
+        <v>-3.817428790561519E-19</v>
       </c>
       <c r="X4">
-        <v>-1.280749880835266E-09</v>
+        <v>-1.280770102148262E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280752490144568E-09</v>
+        <v>1.280771408795849E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6716,25 +6716,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960908</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034219</v>
       </c>
       <c r="AI4">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523327</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856039</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965889</v>
       </c>
       <c r="AL4">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571843</v>
       </c>
       <c r="AM4">
-        <v>2.404297570527625E-08</v>
+        <v>2.404346655023823E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
@@ -6743,13 +6743,13 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP4">
-        <v>2.218376233036782E-08</v>
+        <v>2.21842352905271E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6793,40 +6793,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.079087982421157E-15</v>
+        <v>3.039543992121652E-15</v>
       </c>
       <c r="O5">
-        <v>-3.776048263742492E-15</v>
+        <v>9.761609343440907E-15</v>
       </c>
       <c r="P5">
-        <v>1.423575191301074E-14</v>
+        <v>8.684411405021422E-16</v>
       </c>
       <c r="Q5">
-        <v>-3.907985134445813E-15</v>
+        <v>-4.342205753530602E-16</v>
       </c>
       <c r="R5">
-        <v>-1.223499589643031E-14</v>
+        <v>-2.039165982738387E-14</v>
       </c>
       <c r="S5">
-        <v>-8.854758237509651E-15</v>
+        <v>8.15666392949576E-15</v>
       </c>
       <c r="T5">
-        <v>2.605323424057147E-15</v>
+        <v>-8.68441139226555E-16</v>
       </c>
       <c r="U5">
-        <v>-7.462746367272616E-15</v>
+        <v>-1.00680697887788E-14</v>
       </c>
       <c r="V5">
-        <v>-2.533843292898942E-14</v>
+        <v>-4.512552534998951E-15</v>
       </c>
       <c r="W5">
-        <v>5.210646841372462E-15</v>
+        <v>1.215817596684667E-14</v>
       </c>
       <c r="X5">
-        <v>9.374152225097855E-15</v>
+        <v>1.562358704182979E-14</v>
       </c>
       <c r="Y5">
-        <v>2.169432153449261E-14</v>
+        <v>6.249434816003236E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6847,25 +6847,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960906</v>
       </c>
       <c r="AH5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034219</v>
       </c>
       <c r="AI5">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523327</v>
       </c>
       <c r="AJ5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960908</v>
       </c>
       <c r="AK5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034219</v>
       </c>
       <c r="AL5">
-        <v>0.9701088350523324</v>
+        <v>0.9701088350523327</v>
       </c>
       <c r="AM5">
-        <v>2.40429888495575E-08</v>
+        <v>2.404348645443327E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946502344</v>
@@ -6874,7 +6874,7 @@
         <v>100.8933946519528</v>
       </c>
       <c r="AP5">
-        <v>2.404297570527625E-08</v>
+        <v>2.404346655023823E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946502344</v>
@@ -7071,40 +7071,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138962321472716E-09</v>
+        <v>-3.139005351209741E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398934025910226E-09</v>
+        <v>-1.398953093418088E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705287030860854E-10</v>
+        <v>-1.705272623837559E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138964403875671E-09</v>
+        <v>3.139000950452212E-09</v>
       </c>
       <c r="R2">
-        <v>1.398929474445958E-09</v>
+        <v>1.398950975990792E-09</v>
       </c>
       <c r="S2">
-        <v>1.705296575089937E-10</v>
+        <v>1.705334933064186E-10</v>
       </c>
       <c r="T2">
-        <v>1.418412418589804E-09</v>
+        <v>1.418413986921151E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221703295477823E-09</v>
+        <v>-2.221755871738307E-09</v>
       </c>
       <c r="V2">
-        <v>2.93094722831024E-09</v>
+        <v>2.930942438120056E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418401613185507E-09</v>
+        <v>-1.418401932147427E-09</v>
       </c>
       <c r="X2">
-        <v>2.22171075020913E-09</v>
+        <v>2.221756592123679E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930941717734684E-09</v>
+        <v>-2.930945787573706E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7125,25 +7125,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695823</v>
+        <v>0.6194744497695813</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443486</v>
+        <v>0.9443347709443493</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.055985897694141</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792117</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605378</v>
       </c>
       <c r="AL2">
         <v>1.055985897682488</v>
       </c>
       <c r="AM2">
-        <v>-10.90775017850476</v>
+        <v>-10.90775017850458</v>
       </c>
       <c r="AN2">
         <v>-108.7881138042144</v>
@@ -7152,10 +7152,10 @@
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560481</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR2">
         <v>106.7392371175029</v>
@@ -7202,40 +7202,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046319408216689E-09</v>
+        <v>1.046335117123508E-09</v>
       </c>
       <c r="O3">
-        <v>4.663211943875034E-10</v>
+        <v>4.663209432020563E-10</v>
       </c>
       <c r="P3">
-        <v>5.685536282712641E-11</v>
+        <v>5.683476136405458E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046312673662192E-09</v>
+        <v>-1.0463348657295E-09</v>
       </c>
       <c r="R3">
-        <v>-4.66324392368345E-10</v>
+        <v>-4.663230606561497E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685296772868414E-11</v>
+        <v>-5.681895008781827E-11</v>
       </c>
       <c r="T3">
-        <v>-4.728008878809331E-10</v>
+        <v>-4.728046622462434E-10</v>
       </c>
       <c r="U3">
-        <v>7.405596883867076E-10</v>
+        <v>7.40576311466721E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769891083972525E-10</v>
+        <v>-9.769900810163923E-10</v>
       </c>
       <c r="W3">
-        <v>4.728048198036938E-10</v>
+        <v>4.728098435384288E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405621442179057E-10</v>
+        <v>-7.40575591111755E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769898287522187E-10</v>
+        <v>9.769896129370012E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7256,37 +7256,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824219</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659339</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678603</v>
+        <v>1.055985897678604</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792117</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605378</v>
       </c>
       <c r="AL3">
         <v>1.055985897682488</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463822</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO3">
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560481</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR3">
         <v>106.7392371175029</v>
@@ -7333,40 +7333,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046314755957964E-09</v>
+        <v>1.046337338224707E-09</v>
       </c>
       <c r="O4">
-        <v>4.663212815796114E-10</v>
+        <v>4.663237374146107E-10</v>
       </c>
       <c r="P4">
-        <v>5.685727161264932E-11</v>
+        <v>5.684434174442504E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046319547022116E-09</v>
+        <v>-1.0463359762801E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663201574534595E-10</v>
+        <v>-4.663230606561497E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685966670439239E-11</v>
+        <v>-5.683955155089035E-11</v>
       </c>
       <c r="T4">
-        <v>-4.72794014521009E-10</v>
+        <v>-4.727931366275946E-10</v>
       </c>
       <c r="U4">
-        <v>7.405738338336948E-10</v>
+        <v>7.405706358495046E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769780873145512E-10</v>
+        <v>-9.769871996117298E-10</v>
       </c>
       <c r="W4">
-        <v>4.72800167544969E-10</v>
+        <v>4.728040807291043E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405635849202366E-10</v>
+        <v>-7.40575591111755E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769773669671859E-10</v>
+        <v>9.769886403178618E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7390,34 +7390,34 @@
         <v>0.6194744497824221</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659341</v>
       </c>
       <c r="AI4">
         <v>1.055985897678604</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792117</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605378</v>
       </c>
       <c r="AL4">
         <v>1.055985897682488</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463823</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO4">
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560481</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR4">
         <v>106.7392371175029</v>
@@ -7464,40 +7464,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.897605780357463E-15</v>
+        <v>4.427135156810629E-16</v>
       </c>
       <c r="O5">
-        <v>3.831143248676865E-15</v>
+        <v>-2.81601058129445E-15</v>
       </c>
       <c r="P5">
-        <v>6.717202085990638E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.577509971520052E-15</v>
+        <v>3.549241746113157E-15</v>
       </c>
       <c r="R5">
-        <v>-4.911669997024083E-15</v>
+        <v>-1.779079886923766E-15</v>
       </c>
       <c r="S5">
-        <v>-4.8630956965765E-16</v>
+        <v>8.139678039277006E-15</v>
       </c>
       <c r="T5">
-        <v>2.213567578405286E-15</v>
+        <v>-1.57952115607149E-15</v>
       </c>
       <c r="U5">
-        <v>-9.572154546207096E-15</v>
+        <v>2.139255469706173E-15</v>
       </c>
       <c r="V5">
-        <v>-1.365021939004516E-14</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.744597021868798E-15</v>
+        <v>6.787055180822471E-15</v>
       </c>
       <c r="X5">
-        <v>6.395968382130242E-15</v>
+        <v>-1.757281859935498E-15</v>
       </c>
       <c r="Y5">
-        <v>1.030073153597149E-14</v>
+        <v>7.67159484746265E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -7518,37 +7518,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824219</v>
       </c>
       <c r="AH5">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659339</v>
       </c>
       <c r="AI5">
-        <v>1.055985897678603</v>
+        <v>1.055985897678604</v>
       </c>
       <c r="AJ5">
         <v>0.6194744497824221</v>
       </c>
       <c r="AK5">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659341</v>
       </c>
       <c r="AL5">
         <v>1.055985897678604</v>
       </c>
       <c r="AM5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463822</v>
       </c>
       <c r="AN5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO5">
         <v>106.7392371177116</v>
       </c>
       <c r="AP5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463823</v>
       </c>
       <c r="AQ5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AR5">
         <v>106.7392371177116</v>
@@ -8020,40 +8020,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138962321472716E-09</v>
+        <v>-3.139005351209741E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398934025910226E-09</v>
+        <v>-1.398953093418088E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705287030860854E-10</v>
+        <v>-1.705272623837559E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138964403875671E-09</v>
+        <v>3.139000950452212E-09</v>
       </c>
       <c r="R2">
-        <v>1.398929474445958E-09</v>
+        <v>1.398950975990792E-09</v>
       </c>
       <c r="S2">
-        <v>1.705296575089937E-10</v>
+        <v>1.705334933064186E-10</v>
       </c>
       <c r="T2">
-        <v>1.418412418589804E-09</v>
+        <v>1.418413986921151E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221703295477823E-09</v>
+        <v>-2.221755871738307E-09</v>
       </c>
       <c r="V2">
-        <v>2.93094722831024E-09</v>
+        <v>2.930942438120056E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418401613185507E-09</v>
+        <v>-1.418401932147427E-09</v>
       </c>
       <c r="X2">
-        <v>2.22171075020913E-09</v>
+        <v>2.221756592123679E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930941717734684E-09</v>
+        <v>-2.930945787573706E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695823</v>
+        <v>0.6194744497695813</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443486</v>
+        <v>0.9443347709443493</v>
       </c>
       <c r="AI2">
-        <v>1.05598589769414</v>
+        <v>1.055985897694141</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792117</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605378</v>
       </c>
       <c r="AL2">
         <v>1.055985897682488</v>
       </c>
       <c r="AM2">
-        <v>-10.90775017850476</v>
+        <v>-10.90775017850458</v>
       </c>
       <c r="AN2">
         <v>-108.7881138042144</v>
@@ -8101,10 +8101,10 @@
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560481</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR2">
         <v>106.7392371175029</v>
@@ -8151,40 +8151,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046319408216689E-09</v>
+        <v>1.046335117123508E-09</v>
       </c>
       <c r="O3">
-        <v>4.663211943875034E-10</v>
+        <v>4.663209432020563E-10</v>
       </c>
       <c r="P3">
-        <v>5.685536282712641E-11</v>
+        <v>5.683476136405458E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046312673662192E-09</v>
+        <v>-1.0463348657295E-09</v>
       </c>
       <c r="R3">
-        <v>-4.66324392368345E-10</v>
+        <v>-4.663230606561497E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685296772868414E-11</v>
+        <v>-5.681895008781827E-11</v>
       </c>
       <c r="T3">
-        <v>-4.728008878809331E-10</v>
+        <v>-4.728046622462434E-10</v>
       </c>
       <c r="U3">
-        <v>7.405596883867076E-10</v>
+        <v>7.40576311466721E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769891083972525E-10</v>
+        <v>-9.769900810163923E-10</v>
       </c>
       <c r="W3">
-        <v>4.728048198036938E-10</v>
+        <v>4.728098435384288E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405621442179057E-10</v>
+        <v>-7.40575591111755E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769898287522187E-10</v>
+        <v>9.769896129370012E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8205,37 +8205,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824219</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659339</v>
       </c>
       <c r="AI3">
-        <v>1.055985897678603</v>
+        <v>1.055985897678604</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792117</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605378</v>
       </c>
       <c r="AL3">
         <v>1.055985897682488</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463822</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO3">
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560481</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR3">
         <v>106.7392371175029</v>
@@ -8282,40 +8282,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046314755957964E-09</v>
+        <v>1.046337338224707E-09</v>
       </c>
       <c r="O4">
-        <v>4.663212815796114E-10</v>
+        <v>4.663237374146107E-10</v>
       </c>
       <c r="P4">
-        <v>5.685727161264932E-11</v>
+        <v>5.684434174442504E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046319547022116E-09</v>
+        <v>-1.0463359762801E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663201574534595E-10</v>
+        <v>-4.663230606561497E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685966670439239E-11</v>
+        <v>-5.683955155089035E-11</v>
       </c>
       <c r="T4">
-        <v>-4.72794014521009E-10</v>
+        <v>-4.727931366275946E-10</v>
       </c>
       <c r="U4">
-        <v>7.405738338336948E-10</v>
+        <v>7.405706358495046E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769780873145512E-10</v>
+        <v>-9.769871996117298E-10</v>
       </c>
       <c r="W4">
-        <v>4.72800167544969E-10</v>
+        <v>4.728040807291043E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405635849202366E-10</v>
+        <v>-7.40575591111755E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769773669671859E-10</v>
+        <v>9.769886403178618E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8339,34 +8339,34 @@
         <v>0.6194744497824221</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659341</v>
       </c>
       <c r="AI4">
         <v>1.055985897678604</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792117</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605378</v>
       </c>
       <c r="AL4">
         <v>1.055985897682488</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463823</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO4">
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560481</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR4">
         <v>106.7392371175029</v>
@@ -8413,40 +8413,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.897605780357463E-15</v>
+        <v>4.427135156810629E-16</v>
       </c>
       <c r="O5">
-        <v>3.831143248676865E-15</v>
+        <v>-2.81601058129445E-15</v>
       </c>
       <c r="P5">
-        <v>6.717202085990638E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.577509971520052E-15</v>
+        <v>3.549241746113157E-15</v>
       </c>
       <c r="R5">
-        <v>-4.911669997024083E-15</v>
+        <v>-1.779079886923766E-15</v>
       </c>
       <c r="S5">
-        <v>-4.8630956965765E-16</v>
+        <v>8.139678039277006E-15</v>
       </c>
       <c r="T5">
-        <v>2.213567578405286E-15</v>
+        <v>-1.57952115607149E-15</v>
       </c>
       <c r="U5">
-        <v>-9.572154546207096E-15</v>
+        <v>2.139255469706173E-15</v>
       </c>
       <c r="V5">
-        <v>-1.365021939004516E-14</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.744597021868798E-15</v>
+        <v>6.787055180822471E-15</v>
       </c>
       <c r="X5">
-        <v>6.395968382130242E-15</v>
+        <v>-1.757281859935498E-15</v>
       </c>
       <c r="Y5">
-        <v>1.030073153597149E-14</v>
+        <v>7.67159484746265E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -8467,37 +8467,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824219</v>
       </c>
       <c r="AH5">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659339</v>
       </c>
       <c r="AI5">
-        <v>1.055985897678603</v>
+        <v>1.055985897678604</v>
       </c>
       <c r="AJ5">
         <v>0.6194744497824221</v>
       </c>
       <c r="AK5">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659341</v>
       </c>
       <c r="AL5">
         <v>1.055985897678604</v>
       </c>
       <c r="AM5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463822</v>
       </c>
       <c r="AN5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO5">
         <v>106.7392371177116</v>
       </c>
       <c r="AP5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463823</v>
       </c>
       <c r="AQ5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AR5">
         <v>106.7392371177116</v>
@@ -8691,40 +8691,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.44445293634582E-09</v>
+        <v>-2.444456489059503E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111365650844516E-10</v>
+        <v>-6.111132166273767E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111502536565793E-10</v>
+        <v>-6.111306864072735E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444453331494474E-09</v>
+        <v>2.444457278954123E-09</v>
       </c>
       <c r="R2">
-        <v>6.111345140249259E-10</v>
+        <v>6.111095478688059E-10</v>
       </c>
       <c r="S2">
-        <v>6.111510432491819E-10</v>
+        <v>6.111278458558184E-10</v>
       </c>
       <c r="T2">
-        <v>-3.947813839275226E-15</v>
+        <v>-7.105781551728885E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175426108724518E-09</v>
+        <v>-3.175454000557226E-09</v>
       </c>
       <c r="V2">
-        <v>3.175430919132327E-09</v>
+        <v>3.175417667818451E-09</v>
       </c>
       <c r="W2">
-        <v>3.948051807122423E-15</v>
+        <v>7.50076548472571E-15</v>
       </c>
       <c r="X2">
-        <v>3.175426503529974E-09</v>
+        <v>3.175451515995366E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175435021393232E-09</v>
+        <v>-3.175413960184527E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8745,25 +8745,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308631</v>
+        <v>0.3333333333308638</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085273</v>
+        <v>0.8819171037085282</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036611007</v>
+        <v>0.8819171036611005</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857752</v>
+        <v>0.3333333333857761</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL2">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM2">
-        <v>8.302040373102128E-09</v>
+        <v>8.301981141015249E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487908</v>
@@ -8772,10 +8772,10 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387977531659781E-08</v>
+        <v>1.387971173977857E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR2">
         <v>100.8933946513357</v>
@@ -8822,40 +8822,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.1481922461144E-10</v>
+        <v>8.148219878331917E-10</v>
       </c>
       <c r="O3">
-        <v>2.037213915513164E-10</v>
+        <v>2.036974084630657E-10</v>
       </c>
       <c r="P3">
-        <v>2.037144910910397E-10</v>
+        <v>2.037170144275785E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148188298207312E-10</v>
+        <v>-8.148180403288032E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037254938605289E-10</v>
+        <v>-2.037010773111253E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037170144163939E-10</v>
+        <v>-2.037206445604493E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105203528794185E-15</v>
+        <v>-7.892680984488474E-16</v>
       </c>
       <c r="U3">
-        <v>1.058467926110928E-09</v>
+        <v>1.058470414529319E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058487334590524E-09</v>
+        <v>-1.058478340457801E-09</v>
       </c>
       <c r="W3">
-        <v>5.526246113174209E-15</v>
+        <v>-3.94943351329453E-16</v>
       </c>
       <c r="X3">
-        <v>-1.058467136612389E-09</v>
+        <v>-1.058472899144061E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058478340464411E-09</v>
+        <v>1.058486150359241E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8876,37 +8876,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040794</v>
+        <v>0.3333333334040804</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366895</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467759</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857752</v>
+        <v>0.3333333333857761</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL3">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM3">
-        <v>1.573911363566797E-08</v>
+        <v>1.573906210260881E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO3">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387977531659781E-08</v>
+        <v>1.387971173977857E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR3">
         <v>100.8933946513357</v>
@@ -8953,40 +8953,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.14816066643724E-10</v>
+        <v>8.148188298654758E-10</v>
       </c>
       <c r="O4">
-        <v>2.037206020593878E-10</v>
+        <v>2.036989874469234E-10</v>
       </c>
       <c r="P4">
-        <v>2.037226957318347E-10</v>
+        <v>2.037141737754511E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148156718530157E-10</v>
+        <v>-8.148180403288029E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037190230643448E-10</v>
+        <v>-2.037010773111253E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037247468808476E-10</v>
+        <v>-2.037190655765918E-10</v>
       </c>
       <c r="T4">
-        <v>-5.526219672246738E-15</v>
+        <v>7.897157579370128E-16</v>
       </c>
       <c r="U4">
-        <v>1.05846382379053E-09</v>
+        <v>1.058478619170115E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058485755606667E-09</v>
+        <v>-1.058474632883368E-09</v>
       </c>
       <c r="W4">
-        <v>3.947262256446138E-15</v>
+        <v>-1.973927208822539E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058455619143124E-09</v>
+        <v>-1.058472899144061E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058485360867312E-09</v>
+        <v>1.058477945718446E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9007,37 +9007,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040803</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366891</v>
+        <v>0.8819171037366895</v>
       </c>
       <c r="AI4">
         <v>0.881917103646776</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857752</v>
+        <v>0.3333333333857761</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL4">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM4">
-        <v>1.57391020435984E-08</v>
+        <v>1.573903914801677E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO4">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387977531659781E-08</v>
+        <v>1.387971173977857E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR4">
         <v>100.8933946513357</v>
@@ -9084,40 +9084,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.73695157252249E-15</v>
+        <v>3.947459643515737E-15</v>
       </c>
       <c r="O5">
-        <v>4.419635985279626E-15</v>
+        <v>-1.420326063849931E-15</v>
       </c>
       <c r="P5">
-        <v>-1.261668269903133E-15</v>
+        <v>5.681304254966127E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.947459642865103E-15</v>
+        <v>-3.947459639612042E-16</v>
       </c>
       <c r="R5">
-        <v>-5.878677237597186E-15</v>
+        <v>1.815072028244876E-15</v>
       </c>
       <c r="S5">
-        <v>7.894919287899682E-16</v>
+        <v>-9.311448311239155E-15</v>
       </c>
       <c r="T5">
-        <v>7.894919300911316E-16</v>
+        <v>1.578983858664154E-15</v>
       </c>
       <c r="U5">
-        <v>1.191221522906489E-14</v>
+        <v>-1.853787216712501E-15</v>
       </c>
       <c r="V5">
-        <v>-4.497066361781183E-15</v>
+        <v>-7.415148865982438E-15</v>
       </c>
       <c r="W5">
-        <v>-3.947459645033831E-15</v>
+        <v>-1.578983857688228E-15</v>
       </c>
       <c r="X5">
-        <v>-8.440728966304991E-15</v>
+        <v>3.904947415622474E-15</v>
       </c>
       <c r="Y5">
-        <v>-4.102320397386199E-15</v>
+        <v>1.522504369635986E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9138,40 +9138,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3333333334040794</v>
+        <v>0.3333333334040804</v>
       </c>
       <c r="AH5">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366895</v>
       </c>
       <c r="AI5">
-        <v>0.8819171036467759</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ5">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040803</v>
       </c>
       <c r="AK5">
-        <v>0.8819171037366891</v>
+        <v>0.8819171037366895</v>
       </c>
       <c r="AL5">
         <v>0.881917103646776</v>
       </c>
       <c r="AM5">
-        <v>1.573911363566797E-08</v>
+        <v>1.573906210260881E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO5">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP5">
-        <v>1.57391020435984E-08</v>
+        <v>1.573903914801677E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946508607</v>
       </c>
       <c r="AR5">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
     </row>
   </sheetData>
@@ -9362,40 +9362,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.44445293634582E-09</v>
+        <v>-2.444456489059503E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111365650844516E-10</v>
+        <v>-6.111132166273767E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111502536565793E-10</v>
+        <v>-6.111306864072735E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444453331494474E-09</v>
+        <v>2.444457278954123E-09</v>
       </c>
       <c r="R2">
-        <v>6.111345140249259E-10</v>
+        <v>6.111095478688059E-10</v>
       </c>
       <c r="S2">
-        <v>6.111510432491819E-10</v>
+        <v>6.111278458558184E-10</v>
       </c>
       <c r="T2">
-        <v>-3.947813839275226E-15</v>
+        <v>-7.105781551728885E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175426108724518E-09</v>
+        <v>-3.175454000557226E-09</v>
       </c>
       <c r="V2">
-        <v>3.175430919132327E-09</v>
+        <v>3.175417667818451E-09</v>
       </c>
       <c r="W2">
-        <v>3.948051807122423E-15</v>
+        <v>7.50076548472571E-15</v>
       </c>
       <c r="X2">
-        <v>3.175426503529974E-09</v>
+        <v>3.175451515995366E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175435021393232E-09</v>
+        <v>-3.175413960184527E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9416,25 +9416,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308631</v>
+        <v>0.3333333333308638</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085273</v>
+        <v>0.8819171037085282</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036611007</v>
+        <v>0.8819171036611005</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857752</v>
+        <v>0.3333333333857761</v>
       </c>
       <c r="AK2">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL2">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM2">
-        <v>8.302040373102128E-09</v>
+        <v>8.301981141015249E-09</v>
       </c>
       <c r="AN2">
         <v>-100.8933946487908</v>
@@ -9443,10 +9443,10 @@
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387977531659781E-08</v>
+        <v>1.387971173977857E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR2">
         <v>100.8933946513357</v>
@@ -9493,40 +9493,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.1481922461144E-10</v>
+        <v>8.148219878331917E-10</v>
       </c>
       <c r="O3">
-        <v>2.037213915513164E-10</v>
+        <v>2.036974084630657E-10</v>
       </c>
       <c r="P3">
-        <v>2.037144910910397E-10</v>
+        <v>2.037170144275785E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148188298207312E-10</v>
+        <v>-8.148180403288032E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037254938605289E-10</v>
+        <v>-2.037010773111253E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037170144163939E-10</v>
+        <v>-2.037206445604493E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105203528794185E-15</v>
+        <v>-7.892680984488474E-16</v>
       </c>
       <c r="U3">
-        <v>1.058467926110928E-09</v>
+        <v>1.058470414529319E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058487334590524E-09</v>
+        <v>-1.058478340457801E-09</v>
       </c>
       <c r="W3">
-        <v>5.526246113174209E-15</v>
+        <v>-3.94943351329453E-16</v>
       </c>
       <c r="X3">
-        <v>-1.058467136612389E-09</v>
+        <v>-1.058472899144061E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058478340464411E-09</v>
+        <v>1.058486150359241E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9547,37 +9547,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040794</v>
+        <v>0.3333333334040804</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366895</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467759</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857752</v>
+        <v>0.3333333333857761</v>
       </c>
       <c r="AK3">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL3">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM3">
-        <v>1.573911363566797E-08</v>
+        <v>1.573906210260881E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO3">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP3">
-        <v>1.387977531659781E-08</v>
+        <v>1.387971173977857E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR3">
         <v>100.8933946513357</v>
@@ -9624,40 +9624,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.14816066643724E-10</v>
+        <v>8.148188298654758E-10</v>
       </c>
       <c r="O4">
-        <v>2.037206020593878E-10</v>
+        <v>2.036989874469234E-10</v>
       </c>
       <c r="P4">
-        <v>2.037226957318347E-10</v>
+        <v>2.037141737754511E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148156718530157E-10</v>
+        <v>-8.148180403288029E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037190230643448E-10</v>
+        <v>-2.037010773111253E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037247468808476E-10</v>
+        <v>-2.037190655765918E-10</v>
       </c>
       <c r="T4">
-        <v>-5.526219672246738E-15</v>
+        <v>7.897157579370128E-16</v>
       </c>
       <c r="U4">
-        <v>1.05846382379053E-09</v>
+        <v>1.058478619170115E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058485755606667E-09</v>
+        <v>-1.058474632883368E-09</v>
       </c>
       <c r="W4">
-        <v>3.947262256446138E-15</v>
+        <v>-1.973927208822539E-15</v>
       </c>
       <c r="X4">
-        <v>-1.058455619143124E-09</v>
+        <v>-1.058472899144061E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058485360867312E-09</v>
+        <v>1.058477945718446E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9678,37 +9678,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040803</v>
       </c>
       <c r="AH4">
-        <v>0.8819171037366891</v>
+        <v>0.8819171037366895</v>
       </c>
       <c r="AI4">
         <v>0.881917103646776</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857752</v>
+        <v>0.3333333333857761</v>
       </c>
       <c r="AK4">
-        <v>0.8819171037296489</v>
+        <v>0.8819171037296495</v>
       </c>
       <c r="AL4">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM4">
-        <v>1.57391020435984E-08</v>
+        <v>1.573903914801677E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO4">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP4">
-        <v>1.387977531659781E-08</v>
+        <v>1.387971173977857E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR4">
         <v>100.8933946513357</v>
@@ -9755,40 +9755,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.73695157252249E-15</v>
+        <v>3.947459643515737E-15</v>
       </c>
       <c r="O5">
-        <v>4.419635985279626E-15</v>
+        <v>-1.420326063849931E-15</v>
       </c>
       <c r="P5">
-        <v>-1.261668269903133E-15</v>
+        <v>5.681304254966127E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.947459642865103E-15</v>
+        <v>-3.947459639612042E-16</v>
       </c>
       <c r="R5">
-        <v>-5.878677237597186E-15</v>
+        <v>1.815072028244876E-15</v>
       </c>
       <c r="S5">
-        <v>7.894919287899682E-16</v>
+        <v>-9.311448311239155E-15</v>
       </c>
       <c r="T5">
-        <v>7.894919300911316E-16</v>
+        <v>1.578983858664154E-15</v>
       </c>
       <c r="U5">
-        <v>1.191221522906489E-14</v>
+        <v>-1.853787216712501E-15</v>
       </c>
       <c r="V5">
-        <v>-4.497066361781183E-15</v>
+        <v>-7.415148865982438E-15</v>
       </c>
       <c r="W5">
-        <v>-3.947459645033831E-15</v>
+        <v>-1.578983857688228E-15</v>
       </c>
       <c r="X5">
-        <v>-8.440728966304991E-15</v>
+        <v>3.904947415622474E-15</v>
       </c>
       <c r="Y5">
-        <v>-4.102320397386199E-15</v>
+        <v>1.522504369635986E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9809,40 +9809,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3333333334040794</v>
+        <v>0.3333333334040804</v>
       </c>
       <c r="AH5">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366895</v>
       </c>
       <c r="AI5">
-        <v>0.8819171036467759</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ5">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040803</v>
       </c>
       <c r="AK5">
-        <v>0.8819171037366891</v>
+        <v>0.8819171037366895</v>
       </c>
       <c r="AL5">
         <v>0.881917103646776</v>
       </c>
       <c r="AM5">
-        <v>1.573911363566797E-08</v>
+        <v>1.573906210260881E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946508607</v>
       </c>
       <c r="AO5">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
       <c r="AP5">
-        <v>1.57391020435984E-08</v>
+        <v>1.573903914801677E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946508607</v>
       </c>
       <c r="AR5">
-        <v>100.893394651986</v>
+        <v>100.8933946519859</v>
       </c>
     </row>
   </sheetData>
@@ -10033,40 +10033,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624760452852779E-09</v>
+        <v>-2.62476898359808E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140212193664637E-09</v>
+        <v>-1.140203723270671E-09</v>
       </c>
       <c r="P2">
-        <v>-1.722050157653741E-10</v>
+        <v>-1.72191004923281E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624767270090519E-09</v>
+        <v>2.624768112458859E-09</v>
       </c>
       <c r="R2">
-        <v>1.140212213122575E-09</v>
+        <v>1.140201850718952E-09</v>
       </c>
       <c r="S2">
-        <v>1.722062771569795E-10</v>
+        <v>1.721920907243808E-10</v>
       </c>
       <c r="T2">
-        <v>1.117777381665394E-09</v>
+        <v>1.11777378036632E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947064218837684E-09</v>
+        <v>-1.9470840801018E-09</v>
       </c>
       <c r="V2">
-        <v>2.505965207059475E-09</v>
+        <v>2.505957502916239E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117779335934432E-09</v>
+        <v>-1.117774921245234E-09</v>
       </c>
       <c r="X2">
-        <v>1.947061007300574E-09</v>
+        <v>1.947075076099098E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505969550025911E-09</v>
+        <v>-2.505957187550666E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10087,22 +10087,22 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499194</v>
+        <v>0.5421614591499196</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155462</v>
+        <v>0.8576025463155467</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659619</v>
+        <v>0.9547184906659623</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355487</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556979</v>
       </c>
       <c r="AM2">
         <v>-10.80277169403304</v>
@@ -10114,10 +10114,10 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013759</v>
       </c>
       <c r="AQ2">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
         <v>106.1949204570494</v>
@@ -10164,40 +10164,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749221507813443E-10</v>
+        <v>8.749201094551389E-10</v>
       </c>
       <c r="O3">
-        <v>3.800779095676996E-10</v>
+        <v>3.800647673679019E-10</v>
       </c>
       <c r="P3">
-        <v>5.741179486923634E-11</v>
+        <v>5.740212702420879E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749256651227373E-10</v>
+        <v>-8.74920740101987E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800746979942007E-10</v>
+        <v>-3.80066048108018E-10</v>
       </c>
       <c r="S3">
-        <v>-5.741396636200998E-11</v>
+        <v>-5.739995551991693E-11</v>
       </c>
       <c r="T3">
-        <v>-3.726002498971614E-10</v>
+        <v>-3.725972458642831E-10</v>
       </c>
       <c r="U3">
-        <v>6.490204861628179E-10</v>
+        <v>6.490162315597303E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353282143224104E-10</v>
+        <v>-8.353192488394028E-10</v>
       </c>
       <c r="W3">
-        <v>3.725989595927897E-10</v>
+        <v>3.725973662162315E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490204667533108E-10</v>
+        <v>-6.490168816323168E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353275836559278E-10</v>
+        <v>8.353198795126916E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10218,37 +10218,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422154</v>
       </c>
       <c r="AI3">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355487</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556979</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883906</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013759</v>
       </c>
       <c r="AQ3">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
         <v>106.1949204570494</v>
@@ -10295,40 +10295,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749226321346807E-10</v>
+        <v>8.749210721618118E-10</v>
       </c>
       <c r="O4">
-        <v>3.80073082513038E-10</v>
+        <v>3.800638019569695E-10</v>
       </c>
       <c r="P4">
-        <v>5.740962337070341E-11</v>
+        <v>5.740773136104598E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749206197636525E-10</v>
+        <v>-8.74916416772907E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800715058325648E-10</v>
+        <v>-3.800653786259246E-10</v>
       </c>
       <c r="S4">
-        <v>-5.74128806127435E-11</v>
+        <v>-5.740664560602042E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725977272176191E-10</v>
+        <v>-3.725922005051984E-10</v>
       </c>
       <c r="U4">
-        <v>6.490220628375319E-10</v>
+        <v>6.490165468946731E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353288449922959E-10</v>
+        <v>-8.353223304966974E-10</v>
       </c>
       <c r="W4">
-        <v>3.725979968861167E-10</v>
+        <v>3.725926194902448E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490172357794672E-10</v>
+        <v>-6.490213739459317E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353278989908707E-10</v>
+        <v>8.353226458350432E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10349,37 +10349,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422156</v>
       </c>
       <c r="AI4">
-        <v>0.9547184906522768</v>
+        <v>0.9547184906522769</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355487</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556979</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883907</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013759</v>
       </c>
       <c r="AQ4">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
         <v>106.1949204570494</v>
@@ -10426,40 +10426,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.883694544832968E-15</v>
+        <v>1.261339771239932E-15</v>
       </c>
       <c r="O5">
-        <v>5.43831844339532E-15</v>
+        <v>6.306698856199683E-16</v>
       </c>
       <c r="P5">
-        <v>3.432838304148088E-15</v>
+        <v>-2.171498532908117E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.887727423783641E-15</v>
+        <v>-1.892009656859897E-15</v>
       </c>
       <c r="R5">
-        <v>-2.226750703576285E-15</v>
+        <v>6.500759895263668E-16</v>
       </c>
       <c r="S5">
-        <v>-7.320755989130251E-15</v>
+        <v>2.171498532908117E-15</v>
       </c>
       <c r="T5">
-        <v>1.410656320389085E-15</v>
+        <v>-2.406766682354059E-16</v>
       </c>
       <c r="U5">
-        <v>3.565714890441818E-15</v>
+        <v>1.930821864672702E-15</v>
       </c>
       <c r="V5">
-        <v>-3.712327180196247E-15</v>
+        <v>-6.306698856199841E-16</v>
       </c>
       <c r="W5">
-        <v>-3.451982526398135E-15</v>
+        <v>3.610150023531092E-16</v>
       </c>
       <c r="X5">
-        <v>-3.546308786535419E-15</v>
+        <v>-1.280745875146335E-15</v>
       </c>
       <c r="Y5">
-        <v>4.937820884674385E-15</v>
+        <v>6.306698856199846E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -10480,40 +10480,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AH5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422154</v>
       </c>
       <c r="AI5">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ5">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AK5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422156</v>
       </c>
       <c r="AL5">
-        <v>0.9547184906522768</v>
+        <v>0.9547184906522769</v>
       </c>
       <c r="AM5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883906</v>
       </c>
       <c r="AN5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883907</v>
       </c>
       <c r="AQ5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AR5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
     </row>
   </sheetData>
@@ -10704,40 +10704,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624760452852779E-09</v>
+        <v>-2.62476898359808E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140212193664637E-09</v>
+        <v>-1.140203723270671E-09</v>
       </c>
       <c r="P2">
-        <v>-1.722050157653741E-10</v>
+        <v>-1.72191004923281E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624767270090519E-09</v>
+        <v>2.624768112458859E-09</v>
       </c>
       <c r="R2">
-        <v>1.140212213122575E-09</v>
+        <v>1.140201850718952E-09</v>
       </c>
       <c r="S2">
-        <v>1.722062771569795E-10</v>
+        <v>1.721920907243808E-10</v>
       </c>
       <c r="T2">
-        <v>1.117777381665394E-09</v>
+        <v>1.11777378036632E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947064218837684E-09</v>
+        <v>-1.9470840801018E-09</v>
       </c>
       <c r="V2">
-        <v>2.505965207059475E-09</v>
+        <v>2.505957502916239E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117779335934432E-09</v>
+        <v>-1.117774921245234E-09</v>
       </c>
       <c r="X2">
-        <v>1.947061007300574E-09</v>
+        <v>1.947075076099098E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505969550025911E-09</v>
+        <v>-2.505957187550666E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10758,22 +10758,22 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499194</v>
+        <v>0.5421614591499196</v>
       </c>
       <c r="AH2">
-        <v>0.8576025463155462</v>
+        <v>0.8576025463155467</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659619</v>
+        <v>0.9547184906659623</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK2">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355487</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556979</v>
       </c>
       <c r="AM2">
         <v>-10.80277169403304</v>
@@ -10785,10 +10785,10 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013759</v>
       </c>
       <c r="AQ2">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
         <v>106.1949204570494</v>
@@ -10835,40 +10835,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749221507813443E-10</v>
+        <v>8.749201094551389E-10</v>
       </c>
       <c r="O3">
-        <v>3.800779095676996E-10</v>
+        <v>3.800647673679019E-10</v>
       </c>
       <c r="P3">
-        <v>5.741179486923634E-11</v>
+        <v>5.740212702420879E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749256651227373E-10</v>
+        <v>-8.74920740101987E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800746979942007E-10</v>
+        <v>-3.80066048108018E-10</v>
       </c>
       <c r="S3">
-        <v>-5.741396636200998E-11</v>
+        <v>-5.739995551991693E-11</v>
       </c>
       <c r="T3">
-        <v>-3.726002498971614E-10</v>
+        <v>-3.725972458642831E-10</v>
       </c>
       <c r="U3">
-        <v>6.490204861628179E-10</v>
+        <v>6.490162315597303E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353282143224104E-10</v>
+        <v>-8.353192488394028E-10</v>
       </c>
       <c r="W3">
-        <v>3.725989595927897E-10</v>
+        <v>3.725973662162315E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490204667533108E-10</v>
+        <v>-6.490168816323168E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353275836559278E-10</v>
+        <v>8.353198795126916E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10889,37 +10889,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AH3">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422154</v>
       </c>
       <c r="AI3">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK3">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355487</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556979</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883906</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013759</v>
       </c>
       <c r="AQ3">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
         <v>106.1949204570494</v>
@@ -10966,40 +10966,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749226321346807E-10</v>
+        <v>8.749210721618118E-10</v>
       </c>
       <c r="O4">
-        <v>3.80073082513038E-10</v>
+        <v>3.800638019569695E-10</v>
       </c>
       <c r="P4">
-        <v>5.740962337070341E-11</v>
+        <v>5.740773136104598E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749206197636525E-10</v>
+        <v>-8.74916416772907E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800715058325648E-10</v>
+        <v>-3.800653786259246E-10</v>
       </c>
       <c r="S4">
-        <v>-5.74128806127435E-11</v>
+        <v>-5.740664560602042E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725977272176191E-10</v>
+        <v>-3.725922005051984E-10</v>
       </c>
       <c r="U4">
-        <v>6.490220628375319E-10</v>
+        <v>6.490165468946731E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353288449922959E-10</v>
+        <v>-8.353223304966974E-10</v>
       </c>
       <c r="W4">
-        <v>3.725979968861167E-10</v>
+        <v>3.725926194902448E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490172357794672E-10</v>
+        <v>-6.490213739459317E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353278989908707E-10</v>
+        <v>8.353226458350432E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11020,37 +11020,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422156</v>
       </c>
       <c r="AI4">
-        <v>0.9547184906522768</v>
+        <v>0.9547184906522769</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK4">
-        <v>0.8576025463355481</v>
+        <v>0.8576025463355487</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556979</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883907</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013759</v>
       </c>
       <c r="AQ4">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
         <v>106.1949204570494</v>
@@ -11097,40 +11097,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.883694544832968E-15</v>
+        <v>1.261339771239932E-15</v>
       </c>
       <c r="O5">
-        <v>5.43831844339532E-15</v>
+        <v>6.306698856199683E-16</v>
       </c>
       <c r="P5">
-        <v>3.432838304148088E-15</v>
+        <v>-2.171498532908117E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.887727423783641E-15</v>
+        <v>-1.892009656859897E-15</v>
       </c>
       <c r="R5">
-        <v>-2.226750703576285E-15</v>
+        <v>6.500759895263668E-16</v>
       </c>
       <c r="S5">
-        <v>-7.320755989130251E-15</v>
+        <v>2.171498532908117E-15</v>
       </c>
       <c r="T5">
-        <v>1.410656320389085E-15</v>
+        <v>-2.406766682354059E-16</v>
       </c>
       <c r="U5">
-        <v>3.565714890441818E-15</v>
+        <v>1.930821864672702E-15</v>
       </c>
       <c r="V5">
-        <v>-3.712327180196247E-15</v>
+        <v>-6.306698856199841E-16</v>
       </c>
       <c r="W5">
-        <v>-3.451982526398135E-15</v>
+        <v>3.610150023531092E-16</v>
       </c>
       <c r="X5">
-        <v>-3.546308786535419E-15</v>
+        <v>-1.280745875146335E-15</v>
       </c>
       <c r="Y5">
-        <v>4.937820884674385E-15</v>
+        <v>6.306698856199846E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11151,40 +11151,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AH5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422154</v>
       </c>
       <c r="AI5">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ5">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AK5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422156</v>
       </c>
       <c r="AL5">
-        <v>0.9547184906522768</v>
+        <v>0.9547184906522769</v>
       </c>
       <c r="AM5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883906</v>
       </c>
       <c r="AN5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883907</v>
       </c>
       <c r="AQ5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AR5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
     </row>
   </sheetData>
@@ -11375,40 +11375,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957736835525453E-09</v>
+        <v>-2.957830627168595E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394324716518613E-10</v>
+        <v>-7.394376822987171E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394463673583617E-10</v>
+        <v>-7.394741574748709E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957733361824335E-09</v>
+        <v>2.95782367970292E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073656E-10</v>
+        <v>7.394533146833437E-10</v>
       </c>
       <c r="S2">
-        <v>7.394498415670326E-10</v>
+        <v>7.394706841544137E-10</v>
       </c>
       <c r="T2">
-        <v>6.947452506705805E-15</v>
+        <v>-7.662358111319812E-20</v>
       </c>
       <c r="U2">
-        <v>3.842247608439417E-09</v>
+        <v>3.842263240379944E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842247612875905E-09</v>
+        <v>-3.84224761287593E-09</v>
       </c>
       <c r="W2">
-        <v>-6.947380524063668E-15</v>
+        <v>3.473913170653032E-15</v>
       </c>
       <c r="X2">
-        <v>-3.842247607935528E-09</v>
+        <v>-3.842258029229211E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908924E-09</v>
+        <v>3.842247613379821E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11429,37 +11429,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947058</v>
+        <v>0.7333333491947041</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874885</v>
+        <v>0.3666666743874899</v>
       </c>
       <c r="AI2">
-        <v>0.3666666748072236</v>
+        <v>0.3666666748072259</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104344</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489858</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM2">
-        <v>1.484155485183155E-09</v>
+        <v>1.484266126883322E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988594</v>
+        <v>-179.9999999988592</v>
       </c>
       <c r="AO2">
         <v>-179.9999999981704</v>
       </c>
       <c r="AP2">
-        <v>2.87857302791416E-09</v>
+        <v>2.878703531552272E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910787</v>
       </c>
       <c r="AR2">
         <v>179.9999999968235</v>
@@ -11506,40 +11506,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.85913436458201E-10</v>
+        <v>9.859308052810064E-10</v>
       </c>
       <c r="O3">
-        <v>2.464913858062406E-10</v>
+        <v>2.464653325720557E-10</v>
       </c>
       <c r="P3">
-        <v>2.464844384932088E-10</v>
+        <v>2.464913860223347E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859203839802743E-10</v>
+        <v>-9.8594122656764E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464827013454965E-10</v>
+        <v>-2.464566481113115E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464879122084285E-10</v>
+        <v>-2.465018072666827E-10</v>
       </c>
       <c r="T3">
-        <v>5.753042624211803E-20</v>
+        <v>5.753405378788633E-20</v>
       </c>
       <c r="U3">
-        <v>-1.28076309764742E-09</v>
+        <v>-1.280761360765147E-09</v>
       </c>
       <c r="V3">
-        <v>1.280749204515921E-09</v>
+        <v>1.280735309457672E-09</v>
       </c>
       <c r="W3">
-        <v>-4.953320906208275E-20</v>
+        <v>3.473715024645424E-15</v>
       </c>
       <c r="X3">
-        <v>1.28076309770341E-09</v>
+        <v>1.280752676409742E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280742256930805E-09</v>
+        <v>-1.280742256930813E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11560,37 +11560,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156781</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361501</v>
+        <v>0.3666666743361505</v>
       </c>
       <c r="AI3">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104344</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489858</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM3">
-        <v>3.343346885608304E-09</v>
+        <v>3.343498795927039E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884852</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP3">
-        <v>2.87857302791416E-09</v>
+        <v>2.878703531552272E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910787</v>
       </c>
       <c r="AR3">
         <v>179.9999999968235</v>
@@ -11637,40 +11637,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859203839873235E-10</v>
+        <v>9.859447003392504E-10</v>
       </c>
       <c r="O4">
-        <v>2.464913858062423E-10</v>
+        <v>2.464792276302926E-10</v>
       </c>
       <c r="P4">
-        <v>2.464913860223363E-10</v>
+        <v>2.464844384932085E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859342790385195E-10</v>
+        <v>-9.859412265676398E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464827013454976E-10</v>
+        <v>-2.464635956404311E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464879122084289E-10</v>
+        <v>-2.464948597375564E-10</v>
       </c>
       <c r="T4">
-        <v>-6.947471591425445E-15</v>
+        <v>1.389511577940628E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280770045176537E-09</v>
+        <v>-1.280768308294261E-09</v>
       </c>
       <c r="V4">
-        <v>1.280749204515921E-09</v>
+        <v>1.280749204515928E-09</v>
       </c>
       <c r="W4">
-        <v>6.947479588387505E-15</v>
+        <v>-3.473814097649228E-15</v>
       </c>
       <c r="X4">
-        <v>1.280770045232528E-09</v>
+        <v>1.280766571467975E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280749204459932E-09</v>
+        <v>-1.280756151989067E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11691,37 +11691,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156782</v>
       </c>
       <c r="AH4">
-        <v>0.36666667433615</v>
+        <v>0.3666666743361505</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795379</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104344</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489858</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM4">
-        <v>3.343351955544776E-09</v>
+        <v>3.343490252145207E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884851</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP4">
-        <v>2.87857302791416E-09</v>
+        <v>2.878703531552272E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910787</v>
       </c>
       <c r="AR4">
         <v>179.9999999968235</v>
@@ -11768,40 +11768,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-6.947529123155145E-15</v>
+        <v>-6.94752912234433E-15</v>
       </c>
       <c r="O5">
-        <v>-1.395343480042167E-24</v>
+        <v>-8.684411396495536E-15</v>
       </c>
       <c r="P5">
-        <v>-6.947529127492393E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-3.473764560564058E-15</v>
+        <v>-6.947529122749754E-15</v>
       </c>
       <c r="R5">
-        <v>-3.473764557900537E-15</v>
+        <v>1.389505823718361E-14</v>
       </c>
       <c r="S5">
-        <v>-6.947529128078431E-15</v>
+        <v>-1.389505825498485E-14</v>
       </c>
       <c r="T5">
-        <v>1.389505824428326E-14</v>
+        <v>-4.054234963314073E-25</v>
       </c>
       <c r="U5">
-        <v>6.947529117196422E-15</v>
+        <v>-1.744210904488918E-24</v>
       </c>
       <c r="V5">
-        <v>5.860374037869076E-25</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.04212936837192E-14</v>
+        <v>6.947529121938909E-15</v>
       </c>
       <c r="X5">
-        <v>-3.473764559295882E-15</v>
+        <v>-1.389505823160211E-14</v>
       </c>
       <c r="Y5">
-        <v>-6.947529126906355E-15</v>
+        <v>1.172057978541171E-24</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11822,40 +11822,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156781</v>
       </c>
       <c r="AH5">
-        <v>0.3666666743361501</v>
+        <v>0.3666666743361505</v>
       </c>
       <c r="AI5">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156782</v>
       </c>
       <c r="AK5">
-        <v>0.36666667433615</v>
+        <v>0.3666666743361505</v>
       </c>
       <c r="AL5">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795379</v>
       </c>
       <c r="AM5">
-        <v>3.343346885608304E-09</v>
+        <v>3.343498795927039E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884852</v>
       </c>
       <c r="AO5">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP5">
-        <v>3.343351955544776E-09</v>
+        <v>3.343490252145207E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884851</v>
       </c>
       <c r="AR5">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
     </row>
   </sheetData>
@@ -12046,40 +12046,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957736835525453E-09</v>
+        <v>-2.957830627168595E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394324716518613E-10</v>
+        <v>-7.394376822987171E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394463673583617E-10</v>
+        <v>-7.394741574748709E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957733361824335E-09</v>
+        <v>2.95782367970292E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073656E-10</v>
+        <v>7.394533146833437E-10</v>
       </c>
       <c r="S2">
-        <v>7.394498415670326E-10</v>
+        <v>7.394706841544137E-10</v>
       </c>
       <c r="T2">
-        <v>6.947452506705805E-15</v>
+        <v>-7.662358111319812E-20</v>
       </c>
       <c r="U2">
-        <v>3.842247608439417E-09</v>
+        <v>3.842263240379944E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842247612875905E-09</v>
+        <v>-3.84224761287593E-09</v>
       </c>
       <c r="W2">
-        <v>-6.947380524063668E-15</v>
+        <v>3.473913170653032E-15</v>
       </c>
       <c r="X2">
-        <v>-3.842247607935528E-09</v>
+        <v>-3.842258029229211E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908924E-09</v>
+        <v>3.842247613379821E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12100,37 +12100,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947058</v>
+        <v>0.7333333491947041</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874885</v>
+        <v>0.3666666743874899</v>
       </c>
       <c r="AI2">
-        <v>0.3666666748072236</v>
+        <v>0.3666666748072259</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104344</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489858</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM2">
-        <v>1.484155485183155E-09</v>
+        <v>1.484266126883322E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988594</v>
+        <v>-179.9999999988592</v>
       </c>
       <c r="AO2">
         <v>-179.9999999981704</v>
       </c>
       <c r="AP2">
-        <v>2.87857302791416E-09</v>
+        <v>2.878703531552272E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910787</v>
       </c>
       <c r="AR2">
         <v>179.9999999968235</v>
@@ -12177,40 +12177,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.85913436458201E-10</v>
+        <v>9.859308052810064E-10</v>
       </c>
       <c r="O3">
-        <v>2.464913858062406E-10</v>
+        <v>2.464653325720557E-10</v>
       </c>
       <c r="P3">
-        <v>2.464844384932088E-10</v>
+        <v>2.464913860223347E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859203839802743E-10</v>
+        <v>-9.8594122656764E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464827013454965E-10</v>
+        <v>-2.464566481113115E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464879122084285E-10</v>
+        <v>-2.465018072666827E-10</v>
       </c>
       <c r="T3">
-        <v>5.753042624211803E-20</v>
+        <v>5.753405378788633E-20</v>
       </c>
       <c r="U3">
-        <v>-1.28076309764742E-09</v>
+        <v>-1.280761360765147E-09</v>
       </c>
       <c r="V3">
-        <v>1.280749204515921E-09</v>
+        <v>1.280735309457672E-09</v>
       </c>
       <c r="W3">
-        <v>-4.953320906208275E-20</v>
+        <v>3.473715024645424E-15</v>
       </c>
       <c r="X3">
-        <v>1.28076309770341E-09</v>
+        <v>1.280752676409742E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280742256930805E-09</v>
+        <v>-1.280742256930813E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12231,37 +12231,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156781</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361501</v>
+        <v>0.3666666743361505</v>
       </c>
       <c r="AI3">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104344</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489858</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM3">
-        <v>3.343346885608304E-09</v>
+        <v>3.343498795927039E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884852</v>
       </c>
       <c r="AO3">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP3">
-        <v>2.87857302791416E-09</v>
+        <v>2.878703531552272E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910787</v>
       </c>
       <c r="AR3">
         <v>179.9999999968235</v>
@@ -12308,40 +12308,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859203839873235E-10</v>
+        <v>9.859447003392504E-10</v>
       </c>
       <c r="O4">
-        <v>2.464913858062423E-10</v>
+        <v>2.464792276302926E-10</v>
       </c>
       <c r="P4">
-        <v>2.464913860223363E-10</v>
+        <v>2.464844384932085E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859342790385195E-10</v>
+        <v>-9.859412265676398E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464827013454976E-10</v>
+        <v>-2.464635956404311E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464879122084289E-10</v>
+        <v>-2.464948597375564E-10</v>
       </c>
       <c r="T4">
-        <v>-6.947471591425445E-15</v>
+        <v>1.389511577940628E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280770045176537E-09</v>
+        <v>-1.280768308294261E-09</v>
       </c>
       <c r="V4">
-        <v>1.280749204515921E-09</v>
+        <v>1.280749204515928E-09</v>
       </c>
       <c r="W4">
-        <v>6.947479588387505E-15</v>
+        <v>-3.473814097649228E-15</v>
       </c>
       <c r="X4">
-        <v>1.280770045232528E-09</v>
+        <v>1.280766571467975E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280749204459932E-09</v>
+        <v>-1.280756151989067E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12362,37 +12362,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156782</v>
       </c>
       <c r="AH4">
-        <v>0.36666667433615</v>
+        <v>0.3666666743361505</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795379</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104344</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489858</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM4">
-        <v>3.343351955544776E-09</v>
+        <v>3.343490252145207E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884851</v>
       </c>
       <c r="AO4">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP4">
-        <v>2.87857302791416E-09</v>
+        <v>2.878703531552272E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910787</v>
       </c>
       <c r="AR4">
         <v>179.9999999968235</v>
@@ -12439,40 +12439,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-6.947529123155145E-15</v>
+        <v>-6.94752912234433E-15</v>
       </c>
       <c r="O5">
-        <v>-1.395343480042167E-24</v>
+        <v>-8.684411396495536E-15</v>
       </c>
       <c r="P5">
-        <v>-6.947529127492393E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-3.473764560564058E-15</v>
+        <v>-6.947529122749754E-15</v>
       </c>
       <c r="R5">
-        <v>-3.473764557900537E-15</v>
+        <v>1.389505823718361E-14</v>
       </c>
       <c r="S5">
-        <v>-6.947529128078431E-15</v>
+        <v>-1.389505825498485E-14</v>
       </c>
       <c r="T5">
-        <v>1.389505824428326E-14</v>
+        <v>-4.054234963314073E-25</v>
       </c>
       <c r="U5">
-        <v>6.947529117196422E-15</v>
+        <v>-1.744210904488918E-24</v>
       </c>
       <c r="V5">
-        <v>5.860374037869076E-25</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.04212936837192E-14</v>
+        <v>6.947529121938909E-15</v>
       </c>
       <c r="X5">
-        <v>-3.473764559295882E-15</v>
+        <v>-1.389505823160211E-14</v>
       </c>
       <c r="Y5">
-        <v>-6.947529126906355E-15</v>
+        <v>1.172057978541171E-24</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -12493,40 +12493,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156781</v>
       </c>
       <c r="AH5">
-        <v>0.3666666743361501</v>
+        <v>0.3666666743361505</v>
       </c>
       <c r="AI5">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156782</v>
       </c>
       <c r="AK5">
-        <v>0.36666667433615</v>
+        <v>0.3666666743361505</v>
       </c>
       <c r="AL5">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795379</v>
       </c>
       <c r="AM5">
-        <v>3.343346885608304E-09</v>
+        <v>3.343498795927039E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884852</v>
       </c>
       <c r="AO5">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
       <c r="AP5">
-        <v>3.343351955544776E-09</v>
+        <v>3.343490252145207E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884851</v>
       </c>
       <c r="AR5">
-        <v>179.9999999951597</v>
+        <v>179.9999999951598</v>
       </c>
     </row>
   </sheetData>
@@ -12717,40 +12717,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27217640902256E-09</v>
+        <v>-2.272211910792049E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904132908088462E-09</v>
+        <v>-1.90414383701714E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132488178790879E-09</v>
+        <v>-3.132506390323379E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272172640664604E-09</v>
+        <v>2.272212466097495E-09</v>
       </c>
       <c r="R2">
-        <v>1.90413839697278E-09</v>
+        <v>1.904158955288694E-09</v>
       </c>
       <c r="S2">
-        <v>3.132494027516656E-09</v>
+        <v>3.132505088845297E-09</v>
       </c>
       <c r="T2">
-        <v>7.092059154658381E-10</v>
+        <v>7.091920912828527E-10</v>
       </c>
       <c r="U2">
-        <v>4.349295580361688E-09</v>
+        <v>4.349297025156911E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033224496886039E-10</v>
+        <v>-8.033263608133902E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092015917682331E-10</v>
+        <v>-7.091839991971447E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349292884203543E-09</v>
+        <v>-4.34928619282467E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033351368536774E-10</v>
+        <v>8.033279866498279E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12771,40 +12771,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503077</v>
+        <v>0.8561498316503064</v>
       </c>
       <c r="AH2">
-        <v>0.6454597859038529</v>
+        <v>0.6454597859038542</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143207</v>
+        <v>0.4396365303143214</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569917</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858855425</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501953</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880367</v>
+        <v>-3.925473815880309</v>
       </c>
       <c r="AN2">
         <v>-153.8407182488146</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510055</v>
+        <v>128.6858355510057</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12848,40 +12848,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573911578625338E-10</v>
+        <v>7.574128557288694E-10</v>
       </c>
       <c r="O3">
-        <v>6.347382514300118E-10</v>
+        <v>6.347053678081488E-10</v>
       </c>
       <c r="P3">
-        <v>1.044169660622668E-09</v>
+        <v>1.044155360214944E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.574030182987903E-10</v>
+        <v>-7.574249938027752E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.346958352333192E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.044165767646851E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363964845598589E-10</v>
+        <v>-2.364061036184362E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449783841409083E-09</v>
       </c>
       <c r="V3">
-        <v>2.677832598071749E-10</v>
+        <v>2.677611371499021E-10</v>
       </c>
       <c r="W3">
-        <v>2.364013635023609E-10</v>
+        <v>2.364069365351864E-10</v>
       </c>
       <c r="X3">
-        <v>1.449782590312176E-09</v>
+        <v>1.44977830434446E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677614670886769E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12902,40 +12902,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592203</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794384</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621527</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569917</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858855425</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501953</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544149</v>
       </c>
       <c r="AN3">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12979,40 +12979,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573917131378336E-10</v>
+        <v>7.574139662794692E-10</v>
       </c>
       <c r="O4">
-        <v>6.347382514300118E-10</v>
+        <v>6.347217369921916E-10</v>
       </c>
       <c r="P4">
-        <v>1.044176163010713E-09</v>
+        <v>1.044168364991034E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573952038849363E-10</v>
+        <v>-7.574258267157248E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.347122044173613E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.04417356566653E-09</v>
       </c>
       <c r="T4">
-        <v>-2.363883925083551E-10</v>
+        <v>-2.363899195154287E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449789426918234E-09</v>
       </c>
       <c r="V4">
-        <v>2.677884665635853E-10</v>
+        <v>2.677715506627231E-10</v>
       </c>
       <c r="W4">
-        <v>2.363967622013091E-10</v>
+        <v>2.363947984579307E-10</v>
       </c>
       <c r="X4">
-        <v>1.449782590312176E-09</v>
+        <v>1.449783889853613E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677783829895419E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13033,40 +13033,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592203</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794385</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621529</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569917</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858855425</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501953</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544154</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13110,40 +13110,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.023012875945784E-15</v>
+        <v>-4.601301051781126E-15</v>
       </c>
       <c r="O5">
-        <v>6.885050586647289E-15</v>
+        <v>-5.48867329860938E-15</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-3.899009839673537E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.837426729784136E-15</v>
+        <v>-1.130516430584037E-14</v>
       </c>
       <c r="R5">
-        <v>1.237372388525666E-14</v>
+        <v>1.77655613303238E-14</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.943447451749665E-15</v>
       </c>
       <c r="T5">
-        <v>-1.388188249723926E-16</v>
+        <v>-7.814413853838357E-15</v>
       </c>
       <c r="U5">
-        <v>6.788214733105023E-15</v>
+        <v>-2.695918722533564E-15</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-8.457950432771168E-15</v>
       </c>
       <c r="W5">
-        <v>4.740119876753532E-15</v>
+        <v>1.297099020550904E-14</v>
       </c>
       <c r="X5">
-        <v>9.484133455638577E-15</v>
+        <v>-1.493213141580154E-15</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.756371668279223E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13164,40 +13164,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592203</v>
       </c>
       <c r="AH5">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794384</v>
       </c>
       <c r="AI5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621527</v>
       </c>
       <c r="AJ5">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592203</v>
       </c>
       <c r="AK5">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794385</v>
       </c>
       <c r="AL5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621529</v>
       </c>
       <c r="AM5">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544149</v>
       </c>
       <c r="AN5">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO5">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP5">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544154</v>
       </c>
       <c r="AQ5">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AR5">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
     </row>
   </sheetData>
@@ -13388,40 +13388,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27217640902256E-09</v>
+        <v>-2.272211910792049E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904132908088462E-09</v>
+        <v>-1.90414383701714E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132488178790879E-09</v>
+        <v>-3.132506390323379E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272172640664604E-09</v>
+        <v>2.272212466097495E-09</v>
       </c>
       <c r="R2">
-        <v>1.90413839697278E-09</v>
+        <v>1.904158955288694E-09</v>
       </c>
       <c r="S2">
-        <v>3.132494027516656E-09</v>
+        <v>3.132505088845297E-09</v>
       </c>
       <c r="T2">
-        <v>7.092059154658381E-10</v>
+        <v>7.091920912828527E-10</v>
       </c>
       <c r="U2">
-        <v>4.349295580361688E-09</v>
+        <v>4.349297025156911E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033224496886039E-10</v>
+        <v>-8.033263608133902E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092015917682331E-10</v>
+        <v>-7.091839991971447E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349292884203543E-09</v>
+        <v>-4.34928619282467E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033351368536774E-10</v>
+        <v>8.033279866498279E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13442,40 +13442,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503077</v>
+        <v>0.8561498316503064</v>
       </c>
       <c r="AH2">
-        <v>0.6454597859038529</v>
+        <v>0.6454597859038542</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143207</v>
+        <v>0.4396365303143214</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569917</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858855425</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501953</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880367</v>
+        <v>-3.925473815880309</v>
       </c>
       <c r="AN2">
         <v>-153.8407182488146</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510055</v>
+        <v>128.6858355510057</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13519,40 +13519,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573911578625338E-10</v>
+        <v>7.574128557288694E-10</v>
       </c>
       <c r="O3">
-        <v>6.347382514300118E-10</v>
+        <v>6.347053678081488E-10</v>
       </c>
       <c r="P3">
-        <v>1.044169660622668E-09</v>
+        <v>1.044155360214944E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.574030182987903E-10</v>
+        <v>-7.574249938027752E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.346958352333192E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.044165767646851E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363964845598589E-10</v>
+        <v>-2.364061036184362E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449783841409083E-09</v>
       </c>
       <c r="V3">
-        <v>2.677832598071749E-10</v>
+        <v>2.677611371499021E-10</v>
       </c>
       <c r="W3">
-        <v>2.364013635023609E-10</v>
+        <v>2.364069365351864E-10</v>
       </c>
       <c r="X3">
-        <v>1.449782590312176E-09</v>
+        <v>1.44977830434446E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677614670886769E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13573,40 +13573,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592203</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794384</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621527</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569917</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858855425</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501953</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544149</v>
       </c>
       <c r="AN3">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13650,40 +13650,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573917131378336E-10</v>
+        <v>7.574139662794692E-10</v>
       </c>
       <c r="O4">
-        <v>6.347382514300118E-10</v>
+        <v>6.347217369921916E-10</v>
       </c>
       <c r="P4">
-        <v>1.044176163010713E-09</v>
+        <v>1.044168364991034E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573952038849363E-10</v>
+        <v>-7.574258267157248E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.347122044173613E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.04417356566653E-09</v>
       </c>
       <c r="T4">
-        <v>-2.363883925083551E-10</v>
+        <v>-2.363899195154287E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449789426918234E-09</v>
       </c>
       <c r="V4">
-        <v>2.677884665635853E-10</v>
+        <v>2.677715506627231E-10</v>
       </c>
       <c r="W4">
-        <v>2.363967622013091E-10</v>
+        <v>2.363947984579307E-10</v>
       </c>
       <c r="X4">
-        <v>1.449782590312176E-09</v>
+        <v>1.449783889853613E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677783829895419E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13704,40 +13704,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592203</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794385</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621529</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569917</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855414</v>
+        <v>0.6454597858855425</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501953</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544154</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878182</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13781,40 +13781,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.023012875945784E-15</v>
+        <v>-4.601301051781126E-15</v>
       </c>
       <c r="O5">
-        <v>6.885050586647289E-15</v>
+        <v>-5.48867329860938E-15</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-3.899009839673537E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.837426729784136E-15</v>
+        <v>-1.130516430584037E-14</v>
       </c>
       <c r="R5">
-        <v>1.237372388525666E-14</v>
+        <v>1.77655613303238E-14</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.943447451749665E-15</v>
       </c>
       <c r="T5">
-        <v>-1.388188249723926E-16</v>
+        <v>-7.814413853838357E-15</v>
       </c>
       <c r="U5">
-        <v>6.788214733105023E-15</v>
+        <v>-2.695918722533564E-15</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-8.457950432771168E-15</v>
       </c>
       <c r="W5">
-        <v>4.740119876753532E-15</v>
+        <v>1.297099020550904E-14</v>
       </c>
       <c r="X5">
-        <v>9.484133455638577E-15</v>
+        <v>-1.493213141580154E-15</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.756371668279223E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13835,40 +13835,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592203</v>
       </c>
       <c r="AH5">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794384</v>
       </c>
       <c r="AI5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621527</v>
       </c>
       <c r="AJ5">
-        <v>0.8561498316592205</v>
+        <v>0.8561498316592203</v>
       </c>
       <c r="AK5">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794385</v>
       </c>
       <c r="AL5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621529</v>
       </c>
       <c r="AM5">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544149</v>
       </c>
       <c r="AN5">
         <v>-153.8407182441592</v>
       </c>
       <c r="AO5">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP5">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544154</v>
       </c>
       <c r="AQ5">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AR5">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
     </row>
   </sheetData>
@@ -14059,40 +14059,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444426488372728E-09</v>
+        <v>-2.444453331098303E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111054376559182E-10</v>
+        <v>-6.11111753591338E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111062277565641E-10</v>
+        <v>-6.11110964708145E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444429646441114E-09</v>
+        <v>2.444448594247404E-09</v>
       </c>
       <c r="R2">
-        <v>6.111030698848291E-10</v>
+        <v>6.111125437879681E-10</v>
       </c>
       <c r="S2">
-        <v>6.111062284612707E-10</v>
+        <v>6.111141233805652E-10</v>
       </c>
       <c r="T2">
-        <v>-1.894780472824627E-14</v>
+        <v>3.15796926727905E-15</v>
       </c>
       <c r="U2">
-        <v>3.1754186424756E-09</v>
+        <v>3.17542337942716E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175424961548569E-09</v>
+        <v>-3.175421803580842E-09</v>
       </c>
       <c r="W2">
-        <v>2.210583193457312E-14</v>
+        <v>-6.315877489573121E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107592E-09</v>
+        <v>-3.175421800026865E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175428119932723E-09</v>
+        <v>3.175421803997283E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -14113,40 +14113,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.666666666663504</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670294</v>
+        <v>0.3333333331670283</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964816</v>
+        <v>0.3333333334964808</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909595</v>
+        <v>0.66666666669096</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386029</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523627</v>
       </c>
       <c r="AM2">
-        <v>-3.653257421386626E-11</v>
+        <v>-3.639634041408365E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981411</v>
+        <v>-179.9999999981412</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980557</v>
       </c>
       <c r="AP2">
-        <v>1.357894964940577E-09</v>
+        <v>1.358055391286386E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -14190,40 +14190,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148077768464141E-10</v>
+        <v>8.148093558302716E-10</v>
       </c>
       <c r="O3">
-        <v>2.036944442738405E-10</v>
+        <v>2.037007602092689E-10</v>
       </c>
       <c r="P3">
-        <v>2.036999709202477E-10</v>
+        <v>2.037078658395394E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148109348029432E-10</v>
+        <v>-8.148077768352289E-10</v>
       </c>
       <c r="R3">
-        <v>-2.036999706390394E-10</v>
+        <v>-2.036999706390403E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036999708419463E-10</v>
+        <v>-2.037110237289544E-10</v>
       </c>
       <c r="T3">
-        <v>-3.157941793701568E-15</v>
+        <v>-3.15794179145195E-15</v>
       </c>
       <c r="U3">
-        <v>-1.058468670016501E-09</v>
+        <v>-1.058476564935779E-09</v>
       </c>
       <c r="V3">
-        <v>1.058481303303374E-09</v>
+        <v>1.058478145335655E-09</v>
       </c>
       <c r="W3">
-        <v>3.157948403798706E-15</v>
+        <v>3.157948401592115E-15</v>
       </c>
       <c r="X3">
-        <v>1.058473407014339E-09</v>
+        <v>1.058478143965906E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058478145289386E-09</v>
+        <v>-1.058471829353949E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -14244,40 +14244,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001117</v>
       </c>
       <c r="AH3">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291277</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709903</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909595</v>
+        <v>0.66666666669096</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386029</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523627</v>
       </c>
       <c r="AM3">
-        <v>1.822713111023478E-09</v>
+        <v>1.822867767587345E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP3">
-        <v>1.357894964940577E-09</v>
+        <v>1.358055391286386E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -14321,40 +14321,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148109348141285E-10</v>
+        <v>8.148061978625571E-10</v>
       </c>
       <c r="O4">
-        <v>2.036976022415531E-10</v>
+        <v>2.037039181769825E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031288879623E-10</v>
+        <v>2.037078658395412E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148140927706576E-10</v>
+        <v>-8.148140927706581E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067512E-10</v>
+        <v>-2.037031286067538E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037031288096615E-10</v>
+        <v>-2.037047077935227E-10</v>
       </c>
       <c r="T4">
-        <v>-6.315909508158277E-15</v>
+        <v>-3.157941791808676E-15</v>
       </c>
       <c r="U4">
-        <v>-1.0584686700165E-09</v>
+        <v>-1.058476564935778E-09</v>
       </c>
       <c r="V4">
-        <v>1.05847498736794E-09</v>
+        <v>1.058484461271089E-09</v>
       </c>
       <c r="W4">
-        <v>6.315916118328271E-15</v>
+        <v>-1.931316199879437E-20</v>
       </c>
       <c r="X4">
-        <v>1.058470249046626E-09</v>
+        <v>1.058481301933618E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058471829353952E-09</v>
+        <v>-1.058478145289383E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -14375,40 +14375,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001118</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291277</v>
       </c>
       <c r="AI4">
         <v>0.3333333335709903</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909595</v>
+        <v>0.66666666669096</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386029</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523627</v>
       </c>
       <c r="AM4">
-        <v>1.82271948092277E-09</v>
+        <v>1.822849748232593E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP4">
-        <v>1.357894964940577E-09</v>
+        <v>1.358055391286386E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -14452,40 +14452,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.157967714848685E-15</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>-4.736951569937657E-15</v>
+        <v>-3.947459641798978E-15</v>
       </c>
       <c r="P5">
-        <v>-6.315935429860351E-15</v>
+        <v>3.157967717646224E-15</v>
       </c>
       <c r="Q5">
-        <v>3.01388129589872E-25</v>
+        <v>1.578983857323881E-15</v>
       </c>
       <c r="R5">
-        <v>5.52794279333624E-25</v>
+        <v>2.368475784968829E-15</v>
       </c>
       <c r="S5">
-        <v>6.315935431671051E-15</v>
+        <v>-3.157967715835522E-15</v>
       </c>
       <c r="T5">
-        <v>6.315935429195059E-15</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.15796771089633E-15</v>
+        <v>3.157967711172721E-15</v>
       </c>
       <c r="V5">
-        <v>1.263187086877419E-14</v>
+        <v>3.157967715835523E-15</v>
       </c>
       <c r="W5">
-        <v>-9.47390314394328E-15</v>
+        <v>5.023494489902336E-26</v>
       </c>
       <c r="X5">
-        <v>-1.578983856277356E-15</v>
+        <v>-1.57898385544816E-15</v>
       </c>
       <c r="Y5">
-        <v>-6.31593543529244E-15</v>
+        <v>3.157967717646224E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -14506,40 +14506,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001117</v>
       </c>
       <c r="AH5">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291277</v>
       </c>
       <c r="AI5">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709903</v>
       </c>
       <c r="AJ5">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001118</v>
       </c>
       <c r="AK5">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291277</v>
       </c>
       <c r="AL5">
         <v>0.3333333335709903</v>
       </c>
       <c r="AM5">
-        <v>1.822713111023478E-09</v>
+        <v>1.822867767587345E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO5">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP5">
-        <v>1.82271948092277E-09</v>
+        <v>1.822849748232593E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AR5">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
     </row>
   </sheetData>
@@ -15008,40 +15008,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444426488372728E-09</v>
+        <v>-2.444453331098303E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111054376559182E-10</v>
+        <v>-6.11111753591338E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111062277565641E-10</v>
+        <v>-6.11110964708145E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444429646441114E-09</v>
+        <v>2.444448594247404E-09</v>
       </c>
       <c r="R2">
-        <v>6.111030698848291E-10</v>
+        <v>6.111125437879681E-10</v>
       </c>
       <c r="S2">
-        <v>6.111062284612707E-10</v>
+        <v>6.111141233805652E-10</v>
       </c>
       <c r="T2">
-        <v>-1.894780472824627E-14</v>
+        <v>3.15796926727905E-15</v>
       </c>
       <c r="U2">
-        <v>3.1754186424756E-09</v>
+        <v>3.17542337942716E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175424961548569E-09</v>
+        <v>-3.175421803580842E-09</v>
       </c>
       <c r="W2">
-        <v>2.210583193457312E-14</v>
+        <v>-6.315877489573121E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107592E-09</v>
+        <v>-3.175421800026865E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175428119932723E-09</v>
+        <v>3.175421803997283E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15062,40 +15062,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6666666666635033</v>
+        <v>0.666666666663504</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670294</v>
+        <v>0.3333333331670283</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964816</v>
+        <v>0.3333333334964808</v>
       </c>
       <c r="AJ2">
-        <v>0.6666666666909595</v>
+        <v>0.66666666669096</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386029</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523627</v>
       </c>
       <c r="AM2">
-        <v>-3.653257421386626E-11</v>
+        <v>-3.639634041408365E-11</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999981411</v>
+        <v>-179.9999999981412</v>
       </c>
       <c r="AO2">
-        <v>179.9999999980558</v>
+        <v>179.9999999980557</v>
       </c>
       <c r="AP2">
-        <v>1.357894964940577E-09</v>
+        <v>1.358055391286386E-09</v>
       </c>
       <c r="AQ2">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR2">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -15139,40 +15139,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148077768464141E-10</v>
+        <v>8.148093558302716E-10</v>
       </c>
       <c r="O3">
-        <v>2.036944442738405E-10</v>
+        <v>2.037007602092689E-10</v>
       </c>
       <c r="P3">
-        <v>2.036999709202477E-10</v>
+        <v>2.037078658395394E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148109348029432E-10</v>
+        <v>-8.148077768352289E-10</v>
       </c>
       <c r="R3">
-        <v>-2.036999706390394E-10</v>
+        <v>-2.036999706390403E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036999708419463E-10</v>
+        <v>-2.037110237289544E-10</v>
       </c>
       <c r="T3">
-        <v>-3.157941793701568E-15</v>
+        <v>-3.15794179145195E-15</v>
       </c>
       <c r="U3">
-        <v>-1.058468670016501E-09</v>
+        <v>-1.058476564935779E-09</v>
       </c>
       <c r="V3">
-        <v>1.058481303303374E-09</v>
+        <v>1.058478145335655E-09</v>
       </c>
       <c r="W3">
-        <v>3.157948403798706E-15</v>
+        <v>3.157948401592115E-15</v>
       </c>
       <c r="X3">
-        <v>1.058473407014339E-09</v>
+        <v>1.058478143965906E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058478145289386E-09</v>
+        <v>-1.058471829353949E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15193,40 +15193,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001117</v>
       </c>
       <c r="AH3">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291277</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709903</v>
       </c>
       <c r="AJ3">
-        <v>0.6666666666909595</v>
+        <v>0.66666666669096</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386029</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523627</v>
       </c>
       <c r="AM3">
-        <v>1.822713111023478E-09</v>
+        <v>1.822867767587345E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO3">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP3">
-        <v>1.357894964940577E-09</v>
+        <v>1.358055391286386E-09</v>
       </c>
       <c r="AQ3">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR3">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -15270,40 +15270,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148109348141285E-10</v>
+        <v>8.148061978625571E-10</v>
       </c>
       <c r="O4">
-        <v>2.036976022415531E-10</v>
+        <v>2.037039181769825E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031288879623E-10</v>
+        <v>2.037078658395412E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148140927706576E-10</v>
+        <v>-8.148140927706581E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067512E-10</v>
+        <v>-2.037031286067538E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037031288096615E-10</v>
+        <v>-2.037047077935227E-10</v>
       </c>
       <c r="T4">
-        <v>-6.315909508158277E-15</v>
+        <v>-3.157941791808676E-15</v>
       </c>
       <c r="U4">
-        <v>-1.0584686700165E-09</v>
+        <v>-1.058476564935778E-09</v>
       </c>
       <c r="V4">
-        <v>1.05847498736794E-09</v>
+        <v>1.058484461271089E-09</v>
       </c>
       <c r="W4">
-        <v>6.315916118328271E-15</v>
+        <v>-1.931316199879437E-20</v>
       </c>
       <c r="X4">
-        <v>1.058470249046626E-09</v>
+        <v>1.058481301933618E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058471829353952E-09</v>
+        <v>-1.058478145289383E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15324,40 +15324,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001118</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291277</v>
       </c>
       <c r="AI4">
         <v>0.3333333335709903</v>
       </c>
       <c r="AJ4">
-        <v>0.6666666666909595</v>
+        <v>0.66666666669096</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386029</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523627</v>
       </c>
       <c r="AM4">
-        <v>1.82271948092277E-09</v>
+        <v>1.822849748232593E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO4">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP4">
-        <v>1.357894964940577E-09</v>
+        <v>1.358055391286386E-09</v>
       </c>
       <c r="AQ4">
         <v>-179.9999999844856</v>
       </c>
       <c r="AR4">
-        <v>179.999999987189</v>
+        <v>179.9999999871889</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -15401,40 +15401,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.157967714848685E-15</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>-4.736951569937657E-15</v>
+        <v>-3.947459641798978E-15</v>
       </c>
       <c r="P5">
-        <v>-6.315935429860351E-15</v>
+        <v>3.157967717646224E-15</v>
       </c>
       <c r="Q5">
-        <v>3.01388129589872E-25</v>
+        <v>1.578983857323881E-15</v>
       </c>
       <c r="R5">
-        <v>5.52794279333624E-25</v>
+        <v>2.368475784968829E-15</v>
       </c>
       <c r="S5">
-        <v>6.315935431671051E-15</v>
+        <v>-3.157967715835522E-15</v>
       </c>
       <c r="T5">
-        <v>6.315935429195059E-15</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.15796771089633E-15</v>
+        <v>3.157967711172721E-15</v>
       </c>
       <c r="V5">
-        <v>1.263187086877419E-14</v>
+        <v>3.157967715835523E-15</v>
       </c>
       <c r="W5">
-        <v>-9.47390314394328E-15</v>
+        <v>5.023494489902336E-26</v>
       </c>
       <c r="X5">
-        <v>-1.578983856277356E-15</v>
+        <v>-1.57898385544816E-15</v>
       </c>
       <c r="Y5">
-        <v>-6.31593543529244E-15</v>
+        <v>3.157967717646224E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -15455,40 +15455,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001117</v>
       </c>
       <c r="AH5">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291277</v>
       </c>
       <c r="AI5">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709903</v>
       </c>
       <c r="AJ5">
-        <v>0.6666666667001113</v>
+        <v>0.6666666667001118</v>
       </c>
       <c r="AK5">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291277</v>
       </c>
       <c r="AL5">
         <v>0.3333333335709903</v>
       </c>
       <c r="AM5">
-        <v>1.822713111023478E-09</v>
+        <v>1.822867767587345E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799337</v>
       </c>
       <c r="AO5">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
       <c r="AP5">
-        <v>1.82271948092277E-09</v>
+        <v>1.822849748232593E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AR5">
-        <v>179.9999999835668</v>
+        <v>179.9999999835667</v>
       </c>
     </row>
   </sheetData>
@@ -15679,40 +15679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941664673910368E-09</v>
+        <v>-1.941671276597027E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538334099701026E-09</v>
+        <v>-1.538353867814197E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506376899628722E-09</v>
+        <v>-2.506378089240176E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941661284823312E-09</v>
+        <v>1.941671943426082E-09</v>
       </c>
       <c r="R2">
-        <v>1.538338198605439E-09</v>
+        <v>1.53835270534684E-09</v>
       </c>
       <c r="S2">
-        <v>2.506379874020185E-09</v>
+        <v>2.506381376878714E-09</v>
       </c>
       <c r="T2">
-        <v>5.58871396961715E-10</v>
+        <v>5.588955322853376E-10</v>
       </c>
       <c r="U2">
-        <v>3.623720242019631E-09</v>
+        <v>3.623736285131656E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292813237592463E-10</v>
+        <v>-8.292799775242549E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588675264388592E-10</v>
+        <v>-5.588992222394307E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623722796553055E-09</v>
+        <v>-3.62373534120477E-09</v>
       </c>
       <c r="Y2">
-        <v>8.29277958386186E-10</v>
+        <v>8.292816838440769E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15733,25 +15733,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099299</v>
+        <v>0.7679592756099297</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825747</v>
+        <v>0.5655462792825742</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706159</v>
+        <v>0.379258915670616</v>
       </c>
       <c r="AJ2">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745891</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297773</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611864</v>
+        <v>-3.793471525611807</v>
       </c>
       <c r="AN2">
         <v>-155.6266320097133</v>
@@ -15760,7 +15760,7 @@
         <v>131.4656840130515</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370509</v>
       </c>
       <c r="AQ2">
         <v>-155.6266320036331</v>
@@ -15810,40 +15810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472127675213018E-10</v>
+        <v>6.472118600674123E-10</v>
       </c>
       <c r="O3">
-        <v>5.127840824309526E-10</v>
+        <v>5.127804793966615E-10</v>
       </c>
       <c r="P3">
-        <v>8.354637462755905E-10</v>
+        <v>8.354637462755915E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.47213008192211E-10</v>
+        <v>-6.472111932844324E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127775436449472E-10</v>
+        <v>-5.127814130990709E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354607722066444E-10</v>
+        <v>-8.354604589595715E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862947438154749E-10</v>
+        <v>-1.862946836463067E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207915932867969E-09</v>
       </c>
       <c r="V3">
-        <v>2.764289340772605E-10</v>
+        <v>2.7642893407726E-10</v>
       </c>
       <c r="W3">
-        <v>1.862911140033212E-10</v>
+        <v>1.86290993664986E-10</v>
       </c>
       <c r="X3">
-        <v>1.20791432185643E-09</v>
+        <v>1.207922862570795E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764322996409101E-10</v>
+        <v>-2.764272279480257E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15864,25 +15864,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719275</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ3">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745891</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297773</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956835</v>
+        <v>-3.79347152395675</v>
       </c>
       <c r="AN3">
         <v>-155.6266320016064</v>
@@ -15891,7 +15891,7 @@
         <v>131.4656840156439</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370509</v>
       </c>
       <c r="AQ3">
         <v>-155.6266320036331</v>
@@ -15941,40 +15941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472132488746382E-10</v>
+        <v>6.472121007440806E-10</v>
       </c>
       <c r="O4">
-        <v>5.12784082430953E-10</v>
+        <v>5.12785130717409E-10</v>
       </c>
       <c r="P4">
-        <v>8.354679416040962E-10</v>
+        <v>8.354685364098229E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472132488688793E-10</v>
+        <v>-6.472113136227665E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127846351697987E-10</v>
+        <v>-5.127862935072804E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354649675351496E-10</v>
+        <v>-8.354646542880765E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862874841843606E-10</v>
+        <v>-1.862910538307497E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207919707717857E-09</v>
       </c>
       <c r="V4">
-        <v>2.764350387580598E-10</v>
+        <v>2.764343656405646E-10</v>
       </c>
       <c r="W4">
-        <v>1.86287484187764E-10</v>
+        <v>1.862891787572074E-10</v>
       </c>
       <c r="X4">
-        <v>1.207916991147997E-09</v>
+        <v>1.207920651454153E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.76438404321709E-10</v>
+        <v>-2.764333326288245E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15995,34 +15995,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719276</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ4">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745891</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297773</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956758</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO4">
         <v>131.4656840156439</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370509</v>
       </c>
       <c r="AQ4">
         <v>-155.6266320036331</v>
@@ -16072,40 +16072,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.148130557583726E-15</v>
+        <v>-1.814907778582983E-15</v>
       </c>
       <c r="O5">
-        <v>-4.098541586409478E-15</v>
+        <v>-2.935711399665993E-15</v>
       </c>
       <c r="P5">
         <v>5.94805726224926E-16</v>
       </c>
       <c r="Q5">
-        <v>-9.074538892914919E-16</v>
+        <v>1.574231110290754E-15</v>
       </c>
       <c r="R5">
-        <v>4.327629048867768E-15</v>
+        <v>5.375915504382103E-15</v>
       </c>
       <c r="S5">
-        <v>1.189611452449852E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-3.569646390092909E-15</v>
+        <v>1.203383341461144E-16</v>
       </c>
       <c r="U5">
-        <v>2.554747835945256E-15</v>
+        <v>1.611035363869426E-15</v>
       </c>
       <c r="V5">
-        <v>-6.731174947106972E-16</v>
+        <v>-6.731174947106982E-16</v>
       </c>
       <c r="W5">
-        <v>6.016916707305861E-17</v>
+        <v>-3.75015389131208E-15</v>
       </c>
       <c r="X5">
-        <v>3.431218694615879E-15</v>
+        <v>-5.054770427405122E-16</v>
       </c>
       <c r="Y5">
-        <v>-1.346234989421395E-15</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16126,25 +16126,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719275</v>
       </c>
       <c r="AI5">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ5">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AK5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719276</v>
       </c>
       <c r="AL5">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AM5">
-        <v>-3.793471523956835</v>
+        <v>-3.79347152395675</v>
       </c>
       <c r="AN5">
         <v>-155.6266320016064</v>
@@ -16153,10 +16153,10 @@
         <v>131.4656840156439</v>
       </c>
       <c r="AP5">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956758</v>
       </c>
       <c r="AQ5">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AR5">
         <v>131.4656840156439</v>
@@ -16350,40 +16350,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941664673910368E-09</v>
+        <v>-1.941671276597027E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538334099701026E-09</v>
+        <v>-1.538353867814197E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506376899628722E-09</v>
+        <v>-2.506378089240176E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941661284823312E-09</v>
+        <v>1.941671943426082E-09</v>
       </c>
       <c r="R2">
-        <v>1.538338198605439E-09</v>
+        <v>1.53835270534684E-09</v>
       </c>
       <c r="S2">
-        <v>2.506379874020185E-09</v>
+        <v>2.506381376878714E-09</v>
       </c>
       <c r="T2">
-        <v>5.58871396961715E-10</v>
+        <v>5.588955322853376E-10</v>
       </c>
       <c r="U2">
-        <v>3.623720242019631E-09</v>
+        <v>3.623736285131656E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292813237592463E-10</v>
+        <v>-8.292799775242549E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588675264388592E-10</v>
+        <v>-5.588992222394307E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623722796553055E-09</v>
+        <v>-3.62373534120477E-09</v>
       </c>
       <c r="Y2">
-        <v>8.29277958386186E-10</v>
+        <v>8.292816838440769E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -16404,25 +16404,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099299</v>
+        <v>0.7679592756099297</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825747</v>
+        <v>0.5655462792825742</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706159</v>
+        <v>0.379258915670616</v>
       </c>
       <c r="AJ2">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745891</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297773</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611864</v>
+        <v>-3.793471525611807</v>
       </c>
       <c r="AN2">
         <v>-155.6266320097133</v>
@@ -16431,7 +16431,7 @@
         <v>131.4656840130515</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370509</v>
       </c>
       <c r="AQ2">
         <v>-155.6266320036331</v>
@@ -16481,40 +16481,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472127675213018E-10</v>
+        <v>6.472118600674123E-10</v>
       </c>
       <c r="O3">
-        <v>5.127840824309526E-10</v>
+        <v>5.127804793966615E-10</v>
       </c>
       <c r="P3">
-        <v>8.354637462755905E-10</v>
+        <v>8.354637462755915E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.47213008192211E-10</v>
+        <v>-6.472111932844324E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127775436449472E-10</v>
+        <v>-5.127814130990709E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354607722066444E-10</v>
+        <v>-8.354604589595715E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862947438154749E-10</v>
+        <v>-1.862946836463067E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207915932867969E-09</v>
       </c>
       <c r="V3">
-        <v>2.764289340772605E-10</v>
+        <v>2.7642893407726E-10</v>
       </c>
       <c r="W3">
-        <v>1.862911140033212E-10</v>
+        <v>1.86290993664986E-10</v>
       </c>
       <c r="X3">
-        <v>1.20791432185643E-09</v>
+        <v>1.207922862570795E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764322996409101E-10</v>
+        <v>-2.764272279480257E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -16535,25 +16535,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719275</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ3">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745891</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297773</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956835</v>
+        <v>-3.79347152395675</v>
       </c>
       <c r="AN3">
         <v>-155.6266320016064</v>
@@ -16562,7 +16562,7 @@
         <v>131.4656840156439</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370509</v>
       </c>
       <c r="AQ3">
         <v>-155.6266320036331</v>
@@ -16612,40 +16612,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472132488746382E-10</v>
+        <v>6.472121007440806E-10</v>
       </c>
       <c r="O4">
-        <v>5.12784082430953E-10</v>
+        <v>5.12785130717409E-10</v>
       </c>
       <c r="P4">
-        <v>8.354679416040962E-10</v>
+        <v>8.354685364098229E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472132488688793E-10</v>
+        <v>-6.472113136227665E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127846351697987E-10</v>
+        <v>-5.127862935072804E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354649675351496E-10</v>
+        <v>-8.354646542880765E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862874841843606E-10</v>
+        <v>-1.862910538307497E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207919707717857E-09</v>
       </c>
       <c r="V4">
-        <v>2.764350387580598E-10</v>
+        <v>2.764343656405646E-10</v>
       </c>
       <c r="W4">
-        <v>1.86287484187764E-10</v>
+        <v>1.862891787572074E-10</v>
       </c>
       <c r="X4">
-        <v>1.207916991147997E-09</v>
+        <v>1.207920651454153E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.76438404321709E-10</v>
+        <v>-2.764333326288245E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -16666,34 +16666,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719276</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ4">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745891</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297773</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956758</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO4">
         <v>131.4656840156439</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370509</v>
       </c>
       <c r="AQ4">
         <v>-155.6266320036331</v>
@@ -16743,40 +16743,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.148130557583726E-15</v>
+        <v>-1.814907778582983E-15</v>
       </c>
       <c r="O5">
-        <v>-4.098541586409478E-15</v>
+        <v>-2.935711399665993E-15</v>
       </c>
       <c r="P5">
         <v>5.94805726224926E-16</v>
       </c>
       <c r="Q5">
-        <v>-9.074538892914919E-16</v>
+        <v>1.574231110290754E-15</v>
       </c>
       <c r="R5">
-        <v>4.327629048867768E-15</v>
+        <v>5.375915504382103E-15</v>
       </c>
       <c r="S5">
-        <v>1.189611452449852E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-3.569646390092909E-15</v>
+        <v>1.203383341461144E-16</v>
       </c>
       <c r="U5">
-        <v>2.554747835945256E-15</v>
+        <v>1.611035363869426E-15</v>
       </c>
       <c r="V5">
-        <v>-6.731174947106972E-16</v>
+        <v>-6.731174947106982E-16</v>
       </c>
       <c r="W5">
-        <v>6.016916707305861E-17</v>
+        <v>-3.75015389131208E-15</v>
       </c>
       <c r="X5">
-        <v>3.431218694615879E-15</v>
+        <v>-5.054770427405122E-16</v>
       </c>
       <c r="Y5">
-        <v>-1.346234989421395E-15</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16797,25 +16797,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719275</v>
       </c>
       <c r="AI5">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AJ5">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AK5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719276</v>
       </c>
       <c r="AL5">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494977</v>
       </c>
       <c r="AM5">
-        <v>-3.793471523956835</v>
+        <v>-3.79347152395675</v>
       </c>
       <c r="AN5">
         <v>-155.6266320016064</v>
@@ -16824,10 +16824,10 @@
         <v>131.4656840156439</v>
       </c>
       <c r="AP5">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956758</v>
       </c>
       <c r="AQ5">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AR5">
         <v>131.4656840156439</v>
@@ -18408,40 +18408,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.563194052506556E-14</v>
+        <v>-3.647452789181831E-14</v>
       </c>
       <c r="O2">
-        <v>1.563189667967258E-14</v>
+        <v>7.81592640807129E-15</v>
       </c>
       <c r="P2">
-        <v>-1.042133822868902E-14</v>
+        <v>-3.126392559370315E-14</v>
       </c>
       <c r="Q2">
-        <v>-2.60532342084423E-14</v>
+        <v>2.605323420844165E-14</v>
       </c>
       <c r="R2">
-        <v>-5.210174758053882E-15</v>
+        <v>-5.210174741222614E-15</v>
       </c>
       <c r="S2">
-        <v>5.211119632898032E-15</v>
+        <v>3.126435384375754E-14</v>
       </c>
       <c r="T2">
-        <v>-3.647452789181843E-14</v>
+        <v>-2.084258736675391E-14</v>
       </c>
       <c r="U2">
-        <v>5.763350571398476E-09</v>
+        <v>5.763384440602944E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089307E-09</v>
+        <v>-5.763392260736169E-09</v>
       </c>
       <c r="W2">
-        <v>3.64745278918183E-14</v>
+        <v>1.563194052506543E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763355781559422E-09</v>
+        <v>-5.763376624146789E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763387050575203E-09</v>
+        <v>5.763402682515755E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -18462,40 +18462,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057474</v>
+        <v>0.5500000117057483</v>
       </c>
       <c r="AH2">
-        <v>0.550000012103018</v>
+        <v>0.5500000121030197</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593792</v>
       </c>
       <c r="AK2">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493891</v>
       </c>
       <c r="AL2">
-        <v>6.94449666104254E-13</v>
+        <v>7.020749901105101E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995569</v>
+        <v>-179.9999999995568</v>
       </c>
       <c r="AN2">
-        <v>179.9999999995499</v>
+        <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>6.887451165512839E-13</v>
+        <v>7.066505586617264E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -18539,40 +18539,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736675361E-14</v>
+        <v>-5.210646841688497E-15</v>
       </c>
       <c r="O3">
-        <v>1.563214546371081E-14</v>
+        <v>-1.302641214729176E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886348086E-14</v>
+        <v>2.051771254580501E-19</v>
       </c>
       <c r="Q3">
-        <v>1.252730165043641E-28</v>
+        <v>-1.042129368337667E-14</v>
       </c>
       <c r="R3">
-        <v>-5.210804201512236E-15</v>
+        <v>2.605307682879611E-14</v>
       </c>
       <c r="S3">
-        <v>-1.563209812746983E-14</v>
+        <v>-1.575923785655391E-19</v>
       </c>
       <c r="T3">
-        <v>1.04212936833765E-14</v>
+        <v>1.042129368337668E-14</v>
       </c>
       <c r="U3">
-        <v>-1.92113422573967E-09</v>
+        <v>-1.921142041709931E-09</v>
       </c>
       <c r="V3">
-        <v>1.921108174325013E-09</v>
+        <v>1.921144648852928E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337675E-14</v>
+        <v>-5.210646841688497E-15</v>
       </c>
       <c r="X3">
-        <v>1.921139436440498E-09</v>
+        <v>1.921149857734182E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921118595564711E-09</v>
+        <v>-1.921123806211564E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -18593,40 +18593,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG3">
         <v>0.5500000116439223</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593792</v>
       </c>
       <c r="AK3">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493891</v>
       </c>
       <c r="AL3">
-        <v>6.660169023184687E-13</v>
+        <v>6.985605907837916E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938803</v>
       </c>
       <c r="AN3">
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>6.887451165512839E-13</v>
+        <v>7.066505586617264E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -18670,40 +18670,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.563194052506493E-14</v>
+        <v>1.563194052506492E-14</v>
       </c>
       <c r="O4">
-        <v>1.563214546482255E-14</v>
+        <v>-1.302641214801572E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886348086E-14</v>
+        <v>1.042149886354881E-14</v>
       </c>
       <c r="Q4">
-        <v>-1.252730165043641E-28</v>
+        <v>-2.084258736675328E-14</v>
       </c>
       <c r="R4">
-        <v>5.210489477222209E-15</v>
+        <v>2.605307682879611E-14</v>
       </c>
       <c r="S4">
-        <v>-1.563209812661494E-14</v>
+        <v>-1.042145128039764E-14</v>
       </c>
       <c r="T4">
-        <v>-1.56319405250653E-14</v>
+        <v>1.56319405250653E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921144647033347E-09</v>
+        <v>-1.921131620416253E-09</v>
       </c>
       <c r="V4">
-        <v>1.921108174325013E-09</v>
+        <v>1.921134227559239E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368337675E-14</v>
+        <v>-1.563194052506536E-14</v>
       </c>
       <c r="X4">
-        <v>1.921139436440499E-09</v>
+        <v>1.921149857734182E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211563E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -18724,40 +18724,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439223</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593792</v>
       </c>
       <c r="AK4">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493891</v>
       </c>
       <c r="AL4">
-        <v>6.729871228056328E-13</v>
+        <v>6.957302314575253E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>6.887451165512839E-13</v>
+        <v>7.066505586617264E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952925</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -18801,40 +18801,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.210646841688615E-15</v>
+        <v>-2.084258736675342E-14</v>
       </c>
       <c r="O5">
-        <v>1.042129367732985E-14</v>
+        <v>7.81597025883119E-15</v>
       </c>
       <c r="P5">
-        <v>-5.210646844155951E-15</v>
+        <v>-1.563194052968543E-14</v>
       </c>
       <c r="Q5">
-        <v>-1.042129368337644E-14</v>
+        <v>5.210646841688243E-15</v>
       </c>
       <c r="R5">
-        <v>-5.210646840332533E-15</v>
+        <v>7.815970257719427E-15</v>
       </c>
       <c r="S5">
-        <v>-5.21064684526895E-15</v>
+        <v>1.563194053191141E-14</v>
       </c>
       <c r="T5">
-        <v>2.084258736675343E-14</v>
+        <v>-5.210646841688624E-15</v>
       </c>
       <c r="U5">
-        <v>1.042129367955333E-14</v>
+        <v>8.338212436531782E-25</v>
       </c>
       <c r="V5">
-        <v>5.56499296051812E-25</v>
+        <v>2.605323422244931E-14</v>
       </c>
       <c r="W5">
-        <v>-2.605323420844199E-14</v>
+        <v>1.04212936833768E-14</v>
       </c>
       <c r="X5">
-        <v>1.042129367788572E-14</v>
+        <v>1.042129367927541E-14</v>
       </c>
       <c r="Y5">
-        <v>-1.042129368775541E-14</v>
+        <v>-5.210646845825442E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -18855,40 +18855,40 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG5">
         <v>0.5500000116439223</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ5">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439223</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AL5">
-        <v>6.660169023184687E-13</v>
+        <v>6.985605907837916E-13</v>
       </c>
       <c r="AM5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938803</v>
       </c>
       <c r="AN5">
         <v>179.9999999938735</v>
       </c>
       <c r="AO5">
-        <v>6.729871228056328E-13</v>
+        <v>6.957302314575253E-13</v>
       </c>
       <c r="AP5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938803</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
     </row>
   </sheetData>
